--- a/outs/Audio_&_Video_out.xlsx
+++ b/outs/Audio_&_Video_out.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,244 +438,242 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>creator</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>creator</t>
+          <t>source</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>publisher</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>publisher</t>
+          <t>date</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>contributor</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>contributor</t>
+          <t>language</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>rights</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>rights</t>
+          <t>relation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>relation</t>
+          <t>format</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>format</t>
+          <t>type1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>type1</t>
+          <t>identifier</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>identifier</t>
+          <t>coverage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>coverage</t>
+          <t>zotero_genre</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>zotero_genre</t>
+          <t>zotero_distributor</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>zotero_distributor</t>
+          <t>zotero_director</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>zotero_director</t>
+          <t>z_performer</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>z_performer</t>
+          <t>zotero_episode_number</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>zotero_episode_number</t>
+          <t>zotero_language</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>zotero_language</t>
+          <t>zotero_network</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>zotero_network</t>
+          <t>zotero_audio_recording_format</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>zotero_audio_recording_format</t>
+          <t>zotero_label</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>zotero_label</t>
+          <t>zotero_running_time</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>zotero_running_time</t>
+          <t>zotero_num_pages</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>zotero_num_pages</t>
+          <t>zotero_place</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>zotero_place</t>
+          <t>zotero_publisher</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publisher</t>
+          <t>zotero_issn</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issn</t>
+          <t>zotero_isbn</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>zotero_isbn</t>
+          <t>zotero_issue</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>zotero_issue</t>
+          <t>zotero_publication_title</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>zotero_publication_title</t>
+          <t>z_url</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>z_url</t>
+          <t>zotero_volume</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>zotero_volume</t>
+          <t>zotero_short_title</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>zotero_short_title</t>
+          <t>z_ref</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>z_ref</t>
+          <t>type2</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>type2</t>
+          <t>files</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>tags</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>tags</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>collection</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1228</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Unlikely Heroes and Likely Songs</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unlikely Heroes and Likely Songs</t>
+          <t xml:space="preserve">Recorded at the 2009 Mariposa Storytelling Festival, Mariposa, California. From Parent's website: "In this live CD, Michael performs his original stories 'My Semi-fictional Cousin Artie,' 'The Geno Maneuver,' 'Geriatric Lock Ward,' 'The Garbage Hero,' 'Uncle Joe Fournier.' Songs include French songs (and quick French 'lesson'), and favorites such as 'Side by Side,' 'Frière Jacques,' and 'Short'nin Bread.'" </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recorded at the 2009 Mariposa Storytelling Festival, Mariposa, California. From Parent's website: "In this live CD, Michael performs his original stories 'My Semi-fictional Cousin Artie,' 'The Geno Maneuver,' 'Geriatric Lock Ward,' 'The Garbage Hero,' 'Uncle Joe Fournier.' Songs include French songs (and quick French 'lesson'), and favorites such as 'Side by Side,' 'Frière Jacques,' and 'Short'nin Bread.'" </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t xml:space="preserve">Parent, Michael </t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
+      <c r="F2" t="n">
         <v>2010</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CD audio</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>CD audio</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
           <t>Audio Recording</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
@@ -688,88 +686,85 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Mariposa, California</t>
         </is>
       </c>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>0654867964</t>
         </is>
       </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>http://www.michaelparentstorytelling.com/recordings.htm</t>
-        </is>
-      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.michaelparentstorytelling.com/recordings.htm"&gt;http://www.michaelparentstorytelling.com/recordings.htm&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
       <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/97a499a13cec569abf232d74040fee26.JPG</t>
+        </is>
+      </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/97a499a13cec569abf232d74040fee26.JPG</t>
+          <t>Folklore;Language and Linguistics;Music</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
-        <is>
-          <t>Folklore;Language and Linguistics;Music</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1229</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Songs from Grandma's Kitchen (Chansons de la cuisine à  Mémière) : French-Canadian Toe-Tappers (and a few stories)</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Songs from Grandma's Kitchen (Chansons de la cuisine à  Mémière) : French-Canadian Toe-Tappers (and a few stories)</t>
+          <t>A recording of a collection of songs and tales by storyteller Michael Parent, with the musical accompaniment of Greg Boardman. From the artists: "This live DVD of a Johnson Hall [Gardiner ME] concert features a variety of songs in the French-Canadian tradition, plus a few instrumental medleys with fiddle and guitar, and Hank Williams's 'Jambalaya.' Stories include Michael's bi-lingual, comic version of 'The French Truck Driver,' and Greg Boardman telling the story behind the 'Hangman's Reel' and fiddling the tune."</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A recording of a collection of songs and tales by storyteller Michael Parent, with the musical accompaniment of Greg Boardman. From the artists: "This live DVD of a Johnson Hall [Gardiner ME] concert features a variety of songs in the French-Canadian tradition, plus a few instrumental medleys with fiddle and guitar, and Hank Williams's 'Jambalaya.' Stories include Michael's bi-lingual, comic version of 'The French Truck Driver,' and Greg Boardman telling the story behind the 'Hangman's Reel' and fiddling the tune."</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Parent, Michael;Boardman, Greg</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
+      <c r="F3" t="n">
         <v>2010</v>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DVD video</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>DVD video</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
           <t>Video Recording</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -782,88 +777,85 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Gardiner, Maine</t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr"/>
       <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>0654867954</t>
         </is>
       </c>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>http://www.michaelparentstorytelling.com/recordings.htm</t>
-        </is>
-      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.michaelparentstorytelling.com/recordings.htm"&gt;http://www.michaelparentstorytelling.com/recordings.htm&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/bfa52aafae617194dd588124a2ddac42.JPG</t>
+        </is>
+      </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/bfa52aafae617194dd588124a2ddac42.JPG</t>
+          <t>Ethnicity and Collective Identity;Family;Folklore;Gardiner ME;Lewiston ME;Music</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
-        <is>
-          <t>Ethnicity and Collective Identity;Family;Folklore;Gardiner ME;Lewiston ME;Music</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>1230</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>A Beautiful Game</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A Beautiful Game</t>
+          <t>A recording of Parent's live storytelling performance. From his website: "Known for his poignantly humorous glimpses into Franco-American life, Michael Parent describes 'A Beautiful Game' as the 'mostly true' recollections of his longtime connection to the game of ice hockey. Set in Lewiston, where Parent grew up, the story follows him from his days as a young boy struggling to stay upright on his first pair of skates, to his big moment as goalie for the St. Dom's hockey team which competed, against heavy odds, at the Boston Garden for the New England Championship in 1964."</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A recording of Parent's live storytelling performance. From his website: "Known for his poignantly humorous glimpses into Franco-American life, Michael Parent describes 'A Beautiful Game' as the 'mostly true' recollections of his longtime connection to the game of ice hockey. Set in Lewiston, where Parent grew up, the story follows him from his days as a young boy struggling to stay upright on his first pair of skates, to his big moment as goalie for the St. Dom's hockey team which competed, against heavy odds, at the Boston Garden for the New England Championship in 1964."</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Parent, Michael</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
+      <c r="F4" t="n">
         <v>2010</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DVD Video</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>DVD Video</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
           <t>Video Recording</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -879,91 +871,88 @@
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>0654867964</t>
         </is>
       </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>http://www.michaelparentstorytelling.com/beautifulgame.htm</t>
-        </is>
-      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.michaelparentstorytelling.com/beautifulgame.htm"&gt;http://www.michaelparentstorytelling.com/beautifulgame.htm&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/fa75d1cb98ed61708008234c816d6b4e.jpg</t>
+        </is>
+      </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/fa75d1cb98ed61708008234c816d6b4e.jpg</t>
+          <t>Boston MA;Community: Customs and Social Life;Family;Folklore;Lewiston ME;Mills and Mill Work;Religion;Sports and Leisure</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
-        <is>
-          <t>Boston MA;Community: Customs and Social Life;Family;Folklore;Lewiston ME;Mills and Mill Work;Religion;Sports and Leisure</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>1231</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>What Happened To Kerouac?</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>What Happened To Kerouac?</t>
+          <t xml:space="preserve">Documentary about Franco American writer Jack Kerouac, the American literary and cultural movement spurred on by what is known as the "Beat Generation, and the countdown of Kerouac's final days. Features support from the following persons: Allen Ginsberg, Edie Parker Kerouac, Gregory Corso, William Burroughs, Steve Allen, William Buckley, Charlie Parker, Neal Cassady, Carolyn Cassady, Gary Snyder, Jan Kerouac, Lawrence Ferlinghetti, Michael McClure, Herbert Huncke, Fran Landesman, Ed Sanders, John Clellon Holmes, Ann Charters, Ed White, Diane DiPrima, Father "Spike" Morissette, Joyce Johnson, Robert Creeley, Lewis Yablonsky. </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Documentary about Franco American writer Jack Kerouac, the American literary and cultural movement spurred on by what is known as the "Beat Generation, and the countdown of Kerouac's final days. Features support from the following persons: Allen Ginsberg, Edie Parker Kerouac, Gregory Corso, William Burroughs, Steve Allen, William Buckley, Charlie Parker, Neal Cassady, Carolyn Cassady, Gary Snyder, Jan Kerouac, Lawrence Ferlinghetti, Michael McClure, Herbert Huncke, Fran Landesman, Ed Sanders, John Clellon Holmes, Ann Charters, Ed White, Diane DiPrima, Father "Spike" Morissette, Joyce Johnson, Robert Creeley, Lewis Yablonsky. </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Lerner, Richard (director)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
+      <c r="F5" t="n">
         <v>1986</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>M3770W</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>M3770W</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
           <t>English (with Italian subtitles)</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Video Recording</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Video Recording</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/52960431"&gt;52960431&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/52960431"&gt;52960431&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
           <t>1930-1986; United States</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
@@ -972,58 +961,54 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>01:36:00</t>
         </is>
       </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>9.78074E+12</t>
         </is>
       </c>
+      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>http://www.imdb.com/title/tt0090312/</t>
-        </is>
-      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.imdb.com/title/tt0090312/"&gt;http://www.imdb.com/title/tt0090312/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
       <c r="AI5" t="inlineStr"/>
       <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/62bd309175281a99a0ee9bc127d0d2ea.jpg</t>
+        </is>
+      </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/62bd309175281a99a0ee9bc127d0d2ea.jpg</t>
+          <t>Alcohol and Drugs;Fiction and Literature;Film and Television;Lowell MA;New York NY;Personal History: Biography and Oral History;Poetry;San Francisco CA</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
-        <is>
-          <t>Alcohol and Drugs;Fiction and Literature;Film and Television;Lowell MA;New York NY;Personal History: Biography and Oral History;Poetry;San Francisco CA</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>1236</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Le Sel de la semaine: Seguin rencontre Kerouac</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>Le Sel de la semaine: Seguin rencontre Kerouac</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">Du ''Sel de la Semaine'' animé par Fernand Séguin à  Radio-Canada. Contiens une interview avec Jack Kerouac sur sa vie et ses oeuvres, un métrage de Lowell, Massachusetts des années 1960s, et des interviews publiques avec des hommes franco-américains à  un club social. [Contains a Quebec interview with Jack Kerouac on his life and works, as well as some footage of Lowell, Massachusetts, from the 1960s, and some public interviews with Franco-American men at a Lowell social club.] De Radio-Canada: "L'entrevue que Jack Kerouac accorde à  Fernand Seguin se déroule en français puisque l'écrivain est issu d'une famille canadienne française installée au Massachusetts. L'auteur parle de son enfance, de son goût pour les voyages, de sa façon d'écrire. Kerouac donne également sa définition du terme « beat generation », qui traduit la misière des Noirs de l'Amérique sudiste, la béatitude et le rythme jazz." _x000D_
 _x000D_
@@ -1031,46 +1016,47 @@
 </t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Séguin, Fernand (ressource)</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Séguin, Fernand (ressource)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Watch:  Part 1 of 2 ; Part 2 of 2</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1967 mars 7</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1967 mars 7</t>
+          <t>KlipKultur4 (YouTube)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>KlipKultur4 (YouTube)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>&lt;a href="http://www.worldcat.org/oclc/576092757"&gt;576092757&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/631883971"&gt;631883971&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/77245890"&gt;77245890&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/428079542"&gt;428079542&lt;/a&gt;</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/576092757"&gt;576092757&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/631883971"&gt;631883971&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/77245890"&gt;77245890&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/428079542"&gt;428079542&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
           <t>1967; Lowell, Massachusetts; Québec</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
@@ -1079,209 +1065,203 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>00:23:07</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr">
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>Québec, Canada</t>
         </is>
       </c>
+      <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>http://archives.radio-canada.ca/emissions/411-126/</t>
-        </is>
-      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://archives.radio-canada.ca/emissions/411-126/"&gt;http://archives.radio-canada.ca/emissions/411-126/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
       <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/8d6dad9c2b11122bb5a482a26d1c652c.jpg</t>
+        </is>
+      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/8d6dad9c2b11122bb5a482a26d1c652c.jpg</t>
+          <t>Community: Customs and Social Life;Family;Fiction and Literature;Film and Television;Language and Linguistics;Lowell MA;Personal History: Biography and Oral History;Québec</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Family;Fiction and Literature;Film and Television;Language and Linguistics;Lowell MA;Personal History: Biography and Oral History;Québec</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>1238</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Paul Bunyan</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Paul Bunyan</t>
+          <t>Walt Disney cartoon rendition of the American folklore tale about a woodsman from the Northeast and Midwest named Paul Bunyan. This cartoon also incorporates another piece of folklore from French Canada - the character of Joseph Montferrand (or Joe Muffaw) - who rivals Paul, and whose history as a woodcutter in eastern Canada developed into tales that were passed down as folklore through French Canadian immigration to New England and the Middle West. See George Monteiro's article in #287 of the Journal of American Folklore, "Histoire de Montferrand: L'Athlete Canadien and Joe Mufraw."</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Walt Disney cartoon rendition of the American folklore tale about a woodsman from the Northeast and Midwest named Paul Bunyan. This cartoon also incorporates another piece of folklore from French Canada - the character of Joseph Montferrand (or Joe Muffaw) - who rivals Paul, and whose history as a woodcutter in eastern Canada developed into tales that were passed down as folklore through French Canadian immigration to New England and the Middle West. See George Monteiro's article in #287 of the Journal of American Folklore, "Histoire de Montferrand: L'Athlete Canadien and Joe Mufraw."</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Clark, Les (director)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
+      <c r="F7" t="n">
         <v>1958</v>
       </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>TV Broadcast</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>TV Broadcast</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/31829463"&gt;31829463&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
         <is>
           <t>Children's Animation</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Clark, Les</t>
         </is>
       </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Walt Disney</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>00:16:58</t>
         </is>
       </c>
+      <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>http://www.imdb.com/title/tt0052056/</t>
-        </is>
-      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.imdb.com/title/tt0052056/"&gt;http://www.imdb.com/title/tt0052056/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
       <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/a03bfef8ad0ba6d79c65da5f05e0ddce.jpg</t>
+        </is>
+      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/a03bfef8ad0ba6d79c65da5f05e0ddce.jpg</t>
+          <t>Folklore;Forestry;Great Lakes Region;Maine;Minnesota</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
-        <is>
-          <t>Folklore;Forestry;Great Lakes Region;Maine;Minnesota</t>
-        </is>
-      </c>
-      <c r="AN7" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>1239</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Back in the Day</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>Back in the Day</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve">Music video set in the Sand Hill neighborhood of Augusta, Maine._x000D_
 </t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Swails, J.</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Swails, J.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Watch: VIDEO</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2010 August 14</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2010 August 14</t>
+          <t>JSwails;HitmanProductions207</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>JSwails;HitmanProductions207</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Streaming video</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Streaming video</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
           <t>Video Recording</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2010; Augusta, Maine</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
@@ -1290,80 +1270,77 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>00:03:15</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>http://www.youtube.com/watch?v=M57ayrJ4YiU&amp;feature=youtube_gdata_player</t>
-        </is>
-      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.youtube.com/watch?v=M57ayrJ4YiU&amp;amp;feature=youtube_gdata_player"&gt;http://www.youtube.com/watch?v=M57ayrJ4YiU&amp;amp;feature=youtube_gdata_player&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
       <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>Augusta ME;Family;Music;Sand Hill ME</t>
+        </is>
+      </c>
       <c r="AM8" t="inlineStr">
-        <is>
-          <t>Augusta ME;Family;Music;Sand Hill ME</t>
-        </is>
-      </c>
-      <c r="AN8" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>1240</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>The Belles of New England</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Belles of New England</t>
+          <t>A presentation by William Moran on his book, "The Belles of New England," as a portion of the 2002 Concord Festival of Authors, Concord, Massachusetts. From C-SPAN: "Mr. Moran discussed his book 'The Belles of New England: The Women of the Textile Mills and the Families Whose Wealth They Wove,' published by Thomas Dunne Books. The book recounts the rise and fall of the New England textile industry of the 19th century. Mr. Moran traces the experiences of the thousands of women who left New England farm towns and the Irish, Canadian and European immigrants who came to work in the textile mills. At a time when women had no political influence, these workers opposed mill owners like the Cabots and Lowells of Boston for fair wages and safer working conditions. Following his remarks, Mr. Moran answered questions from members of the audience."</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A presentation by William Moran on his book, "The Belles of New England," as a portion of the 2002 Concord Festival of Authors, Concord, Massachusetts. From C-SPAN: "Mr. Moran discussed his book 'The Belles of New England: The Women of the Textile Mills and the Families Whose Wealth They Wove,' published by Thomas Dunne Books. The book recounts the rise and fall of the New England textile industry of the 19th century. Mr. Moran traces the experiences of the thousands of women who left New England farm towns and the Irish, Canadian and European immigrants who came to work in the textile mills. At a time when women had no political influence, these workers opposed mill owners like the Cabots and Lowells of Boston for fair wages and safer working conditions. Following his remarks, Mr. Moran answered questions from members of the audience."</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Moran, William (speaker)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2002 October 26</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -1374,106 +1351,103 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>00:30:01</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr">
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
         <is>
           <t>Lowell, Massachusetts</t>
         </is>
       </c>
+      <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>http://www.c-spanvideo.org/program/id/117905</t>
-        </is>
-      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.c-spanvideo.org/program/id/117905"&gt;http://www.c-spanvideo.org/program/id/117905&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/db7e679f9b349c9631f53bf0f5aa7253.jpg</t>
+        </is>
+      </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/db7e679f9b349c9631f53bf0f5aa7253.jpg</t>
+          <t>Acculturation and Assimilation;Biddeford ME;Boston MA;Business and Economics;Connecticut;Emigration and Immigration;Farming and Agriculture;Gender and Sexuality;Great Britain;Ireland;Labor History;Lawrence MA;Lewiston ME;Lowell MA;Manchester NH;Mills and Mill Work;Nashua NH;New Bedford MA;Personal History: Biography and Oral History;Québec;Saco ME;Saco River Valley;Social History;Sports and Leisure;Waltham MA</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Biddeford ME;Boston MA;Business and Economics;Connecticut;Emigration and Immigration;Farming and Agriculture;Gender and Sexuality;Great Britain;Ireland;Labor History;Lawrence MA;Lewiston ME;Lowell MA;Manchester NH;Mills and Mill Work;Nashua NH;New Bedford MA;Personal History: Biography and Oral History;Québec;Saco ME;Saco River Valley;Social History;Sports and Leisure;Waltham MA</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>1241</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>C'est la vie : Jane Martin's Franco-American Heritage</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C'est la vie : Jane Martin's Franco-American Heritage</t>
+          <t>Episode of a CBC broadcast, "C'est la vie," whose feature is Franco American life in southern Maine. Biddeford, the hometown of narrator Jane Martin, is the episode's main setting. Contains interviews with Martin's aunt and parents in Biddeford and neighboring Wells Beach. Discussions about language, cultural difference, and travel between Quebec and the United States. Features the song "Cet hiver là " by Michel Rivard.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Episode of a CBC broadcast, "C'est la vie," whose feature is Franco American life in southern Maine. Biddeford, the hometown of narrator Jane Martin, is the episode's main setting. Contains interviews with Martin's aunt and parents in Biddeford and neighboring Wells Beach. Discussions about language, cultural difference, and travel between Quebec and the United States. Features the song "Cet hiver là " by Michel Rivard.</t>
+          <t>Martin, Jane</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Martin, Jane</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Listen: AUDIO</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2010 September 7</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2010 September 7</t>
+          <t>St. Laurent, Bernard (host)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>St. Laurent, Bernard (host)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Streaming audio</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Streaming audio</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
           <t>Radio broadcast</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2010; Biddeford, Maine</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
@@ -1482,210 +1456,204 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>00:26:54</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr">
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>Biddeford, Maine</t>
         </is>
       </c>
+      <c r="AA10" t="inlineStr"/>
       <c r="AB10" t="inlineStr"/>
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>http://www.cbc.ca/cestlavie/episode/2010/09/07/september-7th-2010/ (full audio available here)</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.cbc.ca/cestlavie/episode/2010/09/07/september-7th-2010/"&gt;http://www.cbc.ca/cestlavie/episode/2010/09/07/september-7th-2010/&lt;/a&gt; (full audio available here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
       <c r="AI10" t="inlineStr"/>
       <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/753fe2efaf1e3e5ecf0f69786ea7e93b.jpg</t>
+        </is>
+      </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/753fe2efaf1e3e5ecf0f69786ea7e93b.jpg</t>
+          <t>Biddeford ME;Emigration and Immigration;Ethnicity and Collective Identity;Labor History;Language and Linguistics;Mills and Mill Work;New England;Personal History: Biography and Oral History;Québec;Sanford ME;Wells ME</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
-        <is>
-          <t>Biddeford ME;Emigration and Immigration;Ethnicity and Collective Identity;Labor History;Language and Linguistics;Mills and Mill Work;New England;Personal History: Biography and Oral History;Québec;Sanford ME;Wells ME</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>1242</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Cyberfair 2001</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cyberfair 2001</t>
+          <t>Students at North Country Union High School in Newport, Vermont are champions of the 2001 Cyberfair, a worldwide website design competition. Their site, LifeonTheBorder.com (no longer in service), was about their Franco American community's heritage, including interviews with family members and commentary on their geographic proximity to Canada. This is the news footage on their competition victory.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Students at North Country Union High School in Newport, Vermont are champions of the 2001 Cyberfair, a worldwide website design competition. Their site, LifeonTheBorder.com (no longer in service), was about their Franco American community's heritage, including interviews with family members and commentary on their geographic proximity to Canada. This is the news footage on their competition victory.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>WCAX-TV</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
+      <c r="F11" t="n">
         <v>2001</v>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2001, Newport, Vermont</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>WCAX-TV</t>
         </is>
       </c>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>00:04:03</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr">
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
         <is>
           <t>Burlington, Vermont</t>
         </is>
       </c>
+      <c r="AA11" t="inlineStr"/>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>http://video.google.com/videoplay?docid=-3036467589289435258# (full video available here)  http://www.globalschoolnet.org/gsncf/narrative_view.cfm?narrid=191</t>
-        </is>
-      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://video.google.com/videoplay?docid=-3036467589289435258#"&gt;http://video.google.com/videoplay?docid=-3036467589289435258#&lt;/a&gt; (full video available here) &lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.globalschoolnet.org/gsncf/narrative_view.cfm?narrid=191"&gt;http://www.globalschoolnet.org/gsncf/narrative_view.cfm?narrid=191&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
       <c r="AI11" t="inlineStr"/>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Education;Emigration and Immigration;Ethnicity and Collective Identity;Geography;Journalism;Newport VT;Personal History: Biography and Oral History;Vermont;Youth</t>
+        </is>
+      </c>
       <c r="AM11" t="inlineStr">
-        <is>
-          <t>Education;Emigration and Immigration;Ethnicity and Collective Identity;Geography;Journalism;Newport VT;Personal History: Biography and Oral History;Vermont;Youth</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>1244</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Franco-American History</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Franco-American History</t>
+          <t>A brief overview. Short commentary on the term "Franco-American" and its relevant history and culture in the United States, illustrated with a series of corresponding images.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A brief overview. Short commentary on the term "Franco-American" and its relevant history and culture in the United States, illustrated with a series of corresponding images.</t>
+          <t>Therrien, Lucie</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Therrien, Lucie</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Watch: VIDEO</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t>2010 February 11</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Film</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>Documentary</t>
         </is>
       </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>00:01:27</t>
         </is>
       </c>
+      <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
       <c r="AB12" t="inlineStr"/>
@@ -1698,94 +1666,91 @@
       <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Community: Customs and Social Life;Ethnicity and Collective Identity;Family;New England;Québec</t>
+        </is>
+      </c>
       <c r="AM12" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Ethnicity and Collective Identity;Family;New England;Québec</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>1246</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Log Drive, 1933-1934</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Log Drive, 1933-1934</t>
+          <t>Film footage of woodsmen at Riviière Rouge in St. Jovite, Québec, on the log drive. Timber moves from the stump, to the trails, to the river's flow, and on to the mills. Black and white silent film with scrolling text introduction.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Film footage of woodsmen at Riviière Rouge in St. Jovite, Québec, on the log drive. Timber moves from the stump, to the trails, to the river's flow, and on to the mills. Black and white silent film with scrolling text introduction.</t>
+          <t>Shaw, E.E.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Shaw, E.E.</t>
+          <t>Watch: VIDEO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Watch: VIDEO</t>
+          <t>Les Editions FAROG</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Les Editions FAROG</t>
+          <t>2002 December 18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2002 December 18</t>
+          <t>Labbé, Yvon A. (numérisation)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Labbé, Yvon A. (numérisation)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DVD Video</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>DVD Video</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
           <t>Film</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1933-1934; St. Jovite, Québec</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1933-1934; St. Jovite, Québec</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
           <t>Documentary</t>
         </is>
       </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
@@ -1801,179 +1766,173 @@
       <c r="AH13" t="inlineStr"/>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/27e29c1cea2fb152ff2d0b7114ab1c40.jpg</t>
+        </is>
+      </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/27e29c1cea2fb152ff2d0b7114ab1c40.jpg</t>
+          <t>Food;Forestry;Labor History;Québec</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
-        <is>
-          <t>Food;Forestry;Labor History;Québec</t>
-        </is>
-      </c>
-      <c r="AN13" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>1247</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>America and Lewis Hine</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>America and Lewis Hine</t>
+          <t>Documentary film about twentieth-century photographer and historian Lewis Hine, most famous for exposing poor working conditions and child labor in industrial America. Hine, as seen in this film, was also the photographer commissioned to capture on film the construction of the Empire State Building in New York City.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Documentary film about twentieth-century photographer and historian Lewis Hine, most famous for exposing poor working conditions and child labor in industrial America. Hine, as seen in this film, was also the photographer commissioned to capture on film the construction of the Empire State Building in New York City.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Rosenblum, Nina</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
+      <c r="F14" t="n">
         <v>1984</v>
       </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/36332787"&gt;36332787&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/36332787"&gt;36332787&lt;/a&gt;</t>
+          <t>20th century, United States</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>20th century, United States</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Documentary</t>
+          <t>WNET Channel 13 New York</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>WNET Channel 13 New York</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
           <t>Rosenblum, Nina</t>
         </is>
       </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>01:00:00</t>
         </is>
       </c>
+      <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>http://www.imdb.com/title/tt0128927/</t>
-        </is>
-      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.imdb.com/title/tt0128927/"&gt;http://www.imdb.com/title/tt0128927/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="inlineStr"/>
       <c r="AI14" t="inlineStr"/>
       <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/a560da2a5db8ad404780100b42bfe6e7.jpg</t>
+        </is>
+      </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/a560da2a5db8ad404780100b42bfe6e7.jpg</t>
+          <t>Emigration and Immigration;Film and Television;Labor History;Mills and Mill Work;Personal History: Biography and Oral History;Social History;United States;Youth</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
-        <is>
-          <t>Emigration and Immigration;Film and Television;Labor History;Mills and Mill Work;Personal History: Biography and Oral History;Social History;United States;Youth</t>
-        </is>
-      </c>
-      <c r="AN14" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>1248</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Discussion of "Reveil! Waking Up French"</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Discussion of "Reveil! Waking Up French"</t>
+          <t>A roundtable discussion led by writer Abby Paige about Franco American heritage in Vermont with respect to the themes in Ben Levine's film, "Reveil!" From the Center for Media and Democracy: " 'Réveil! -- Waking Up French' is a powerful documentary film by Ben Levine that explores the struggle for cultural survival among the French-Canadian communities of New England today. Abby Paige, writer-performer of 'Piecework: When We Were French,' will attend and lead a discussion after the film. Abby will be seeing 'Reveil!' for her first time. The film, now in the lending collection at the library, is closely related to the themes of her acclaimed 2009 play. Presented by the Fletcher Free Library community language programs."</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>A roundtable discussion led by writer Abby Paige about Franco American heritage in Vermont with respect to the themes in Ben Levine's film, "Reveil!" From the Center for Media and Democracy: " 'Réveil! -- Waking Up French' is a powerful documentary film by Ben Levine that explores the struggle for cultural survival among the French-Canadian communities of New England today. Abby Paige, writer-performer of 'Piecework: When We Were French,' will attend and lead a discussion after the film. Abby will be seeing 'Reveil!' for her first time. The film, now in the lending collection at the library, is closely related to the themes of her acclaimed 2009 play. Presented by the Fletcher Free Library community language programs."</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Paige, Abby (moderator)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2010 June 27</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2010 June 27</t>
+          <t>Center for Media and Democracy</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Center for Media and Democracy</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Video Recording</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
         <is>
           <t>21st century, Vermont</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
@@ -1982,734 +1941,713 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>00:24:40</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr">
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
         <is>
           <t>Burlington, Vermont</t>
         </is>
       </c>
+      <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr"/>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>http://www.cctv.org/watch-tv/programs/discussion-film-r%C3%A9veil-waking-french (full video available here)</t>
-        </is>
-      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.cctv.org/watch-tv/programs/discussion-film-r%C3%A9veil-waking-french"&gt;http://www.cctv.org/watch-tv/programs/discussion-film-r%C3%A9veil-waking-french&lt;/a&gt; (full video available here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>Burlington VT;Criticism and Review;Ethnicity and Collective Identity;Film and Television;Montréal QC;New England;Personal History: Biography and Oral History;Vermont</t>
+        </is>
+      </c>
       <c r="AM15" t="inlineStr">
-        <is>
-          <t>Burlington VT;Criticism and Review;Ethnicity and Collective Identity;Film and Television;Montréal QC;New England;Personal History: Biography and Oral History;Vermont</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>1249</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Black Robe</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Black Robe</t>
+          <t>From the Canadian Film Encyclopedia: "Black Robe is a bleak but majestic film about the diverse cultures of the French settlers and the Algonquin people, and the clashes between them....The hostile wilderness of 17th-century New France is the setting for the story of Father Laforgue (Bluteau), a young, idealistic Jesuit whose ambitious mission is to save the souls of the 'savages' of New France. Upon his arrival from France, Laforgue embarks on a perilous journey by canoe, from Champlain's fort upriver to a desolate Jesuit outpost where it is hoped he will 'reap a harvest of souls.' He travels through the magnificent, nearly overwhelming landscape of the Canadian North with a group of Algonquin Indians as his guides."</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>From the Canadian Film Encyclopedia: "Black Robe is a bleak but majestic film about the diverse cultures of the French settlers and the Algonquin people, and the clashes between them....The hostile wilderness of 17th-century New France is the setting for the story of Father Laforgue (Bluteau), a young, idealistic Jesuit whose ambitious mission is to save the souls of the 'savages' of New France. Upon his arrival from France, Laforgue embarks on a perilous journey by canoe, from Champlain's fort upriver to a desolate Jesuit outpost where it is hoped he will 'reap a harvest of souls.' He travels through the magnificent, nearly overwhelming landscape of the Canadian North with a group of Algonquin Indians as his guides."</t>
+          <t>Beresford, Bruce (director)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Beresford, Bruce (director)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Watch: TRAILER</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
         <is>
           <t>1991 September</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>English, Latin, Cree, Mohawk, Algonquin</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/228009707"&gt;228009707&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/228009707"&gt;228009707&lt;/a&gt;</t>
+          <t>17th century; North America</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>17th century; North America</t>
+          <t>Historical Drama</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Historical Drama</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
           <t>Samuel Goldwyn Company</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>01:41:00</t>
         </is>
       </c>
+      <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
       <c r="AB16" t="inlineStr"/>
       <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>http://en.wikipedia.org/wiki/Black_Robe_%28film%29</t>
-        </is>
-      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://en.wikipedia.org/wiki/Black_Robe_%28film%29"&gt;http://en.wikipedia.org/wiki/Black_Robe_%28film%29&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
       <c r="AI16" t="inlineStr"/>
       <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/a4540084309feff0a53798da02ea6b96.jpg</t>
+        </is>
+      </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/a4540084309feff0a53798da02ea6b96.jpg</t>
+          <t>Acculturation and Assimilation;Canada;Death and Disaster;Ethnicity and Collective Identity;Exploration and Colonization;Film and Television;France;Fur-trading;Native Americans;Religion;Violence</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Canada;Death and Disaster;Ethnicity and Collective Identity;Exploration and Colonization;Film and Television;France;Fur-trading;Native Americans;Religion;Violence</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>1250</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Les tisserands du pouvoir</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>Les tisserands du pouvoir</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t xml:space="preserve">Un drame télévisé sur l'émigration canadienne française à  la Nouvelle-Angleterre au début de la vingtiième siiècle, et les travailleurs des usines textiles de l'époque industrielle aux Etats-Unis._x000D_
 _x000D_
 </t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fournier, Claude</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Fournier, Claude</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Regarder: BANDE-ANNONCE</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
         <v>1988</v>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>TV Broadcast</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>TV Broadcast</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/77099172"&gt;77099172&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/235986817"&gt;235986817&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/77099172"&gt;77099172&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/235986817"&gt;235986817&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
           <t>20e siiècle; Nouvelle-Angleterre</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Fournier, Claude</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" s="2" t="n">
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" s="2" t="n">
         <v>45663</v>
       </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
         <is>
           <t>RCTV (Radio-Canada Television)</t>
         </is>
       </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr">
+      <c r="X17" t="inlineStr">
         <is>
           <t>6 1-hour segments</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr">
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr">
         <is>
           <t>Québec/New England</t>
         </is>
       </c>
+      <c r="AA17" t="inlineStr"/>
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>http://www.imdb.com/title/tt0096276/</t>
-        </is>
-      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.imdb.com/title/tt0096276/"&gt;http://www.imdb.com/title/tt0096276/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="inlineStr"/>
       <c r="AI17" t="inlineStr"/>
       <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/b8f3d1e48599081b22c3958256f05f20.jpg</t>
+        </is>
+      </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/b8f3d1e48599081b22c3958256f05f20.jpg</t>
+          <t>Acculturation and Assimilation;Emigration and Immigration;Film and Television;France;Government and Politics;Journalism;Labor History;Mills and Mill Work;New England;Québec;Social History;War</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Emigration and Immigration;Film and Television;France;Government and Politics;Journalism;Labor History;Mills and Mill Work;New England;Québec;Social History;War</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>1251</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Bonjour: Franco-American Centre</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bonjour: Franco-American Centre</t>
+          <t>The fourth episode of public television's "Bonjour" takes place on site at Manchester, New Hampshire's Franco-American Centre, featuring interviews with some of the staff there and a special feature on the 2010 New Hampshire Franco-American of the year.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The fourth episode of public television's "Bonjour" takes place on site at Manchester, New Hampshire's Franco-American Centre, featuring interviews with some of the staff there and a special feature on the 2010 New Hampshire Franco-American of the year.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>Plante, Chantal;Baribeau, Celine</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="n">
+      <c r="F18" t="n">
         <v>2010</v>
       </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>English, with some français</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
         <is>
           <t>21st century, New Hampshire</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="n">
+      <c r="S18" t="n">
         <v>4</v>
       </c>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
         <is>
           <t>BCTV</t>
         </is>
       </c>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
+      <c r="X18" t="inlineStr">
         <is>
           <t>00:33:44</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr">
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
         <is>
           <t>Bedford, New Hampshire</t>
         </is>
       </c>
+      <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;ShowID=3338 (full episode available here)</t>
-        </is>
-      </c>
+      <c r="AF18" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3338"&gt;http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3338&lt;/a&gt; (full episode available here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
       <c r="AI18" t="inlineStr"/>
       <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/10a9acd84ad3ff2134bc9d52c30da44e.png</t>
+        </is>
+      </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/10a9acd84ad3ff2134bc9d52c30da44e.png</t>
+          <t>Community: Customs and Social Life;Ethnicity and Collective Identity;Film and Television;Language and Linguistics;Manchester NH;Personal History: Biography and Oral History</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Ethnicity and Collective Identity;Film and Television;Language and Linguistics;Manchester NH;Personal History: Biography and Oral History</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>1252</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Bonjour: Travel Tips</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bonjour: Travel Tips</t>
+          <t>The third episode of Plante's and Baribeau's public broadcast, "Bonjour," taking its viewers on a trip through Montreal and Quebec City and giving plenty of advice to vacationers-to-be.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The third episode of Plante's and Baribeau's public broadcast, "Bonjour," taking its viewers on a trip through Montreal and Quebec City and giving plenty of advice to vacationers-to-be.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Plante, Chantal;Baribeau, Celine</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>2010 June 1</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
         <is>
           <t>21st century, Québec</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Chantal Plante</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="n">
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
         <v>3</v>
       </c>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
         <is>
           <t>BCTV</t>
         </is>
       </c>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>00:30:56</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr">
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
         <is>
           <t>Bedford, New Hampshire</t>
         </is>
       </c>
+      <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
       <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;ShowID=3285 (full episode available here)</t>
-        </is>
-      </c>
+      <c r="AF19" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3285"&gt;http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3285&lt;/a&gt; (full episode available here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/330bbb994d3a33899c982560a6aa7605.png</t>
+        </is>
+      </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/330bbb994d3a33899c982560a6aa7605.png</t>
+          <t>Community: Customs and Social Life;Emigration and Immigration;Ethnicity and Collective Identity;Film and Television;Language and Linguistics;Personal History: Biography and Oral History</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Emigration and Immigration;Ethnicity and Collective Identity;Film and Television;Language and Linguistics;Personal History: Biography and Oral History</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>1253</v>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Bonjour: Fondue</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bonjour: Fondue</t>
+          <t>The second broadcast of Bedford, New Hampshire's "Bonjour." Chantal, Celine, and their special guest, Luci, talk to us while they show how to make and cook la fondue.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>The second broadcast of Bedford, New Hampshire's "Bonjour." Chantal, Celine, and their special guest, Luci, talk to us while they show how to make and cook la fondue.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>Plante, Chantal;Baribeau, Celine</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>2010 April 30</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr">
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>English, with some français</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
         <is>
           <t>21st century, New Hampshire</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="n">
+      <c r="S20" t="n">
         <v>2</v>
       </c>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
         <is>
           <t>BCTV (Bedford Community Television)</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
+      <c r="X20" t="inlineStr">
         <is>
           <t>00:25:14</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr">
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
         <is>
           <t>Bedford, New Hampshire</t>
         </is>
       </c>
+      <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;ShowID=3227 (full episode available here)</t>
-        </is>
-      </c>
+      <c r="AF20" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3227"&gt;http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3227&lt;/a&gt; (full episode available here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
       <c r="AI20" t="inlineStr"/>
       <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/b7570b8cda355f1dfef01c2396899119.png</t>
+        </is>
+      </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/b7570b8cda355f1dfef01c2396899119.png</t>
+          <t>Community: Customs and Social Life;Ethnicity and Collective Identity;Film and Television;Food;Language and Linguistics;Manchester NH;Personal History: Biography and Oral History</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Ethnicity and Collective Identity;Film and Television;Food;Language and Linguistics;Manchester NH;Personal History: Biography and Oral History</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>1254</v>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>"Bonjour" with Chantal Plante &amp; Celine Baribeau</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Bonjour" with Chantal Plante &amp; Celine Baribeau</t>
+          <t>A public television broadcast out of Bedford, New Hampshire, "Bonjour" features highlights of Quebec and New England for the purpose of re-educating New Hampshire about the breadth of its French heritage, seen across the state in its Franco Americans. This episode is the inaugural broadcast, featuring an extended interview with co-host and professional photographer Celine Baribeau.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>A public television broadcast out of Bedford, New Hampshire, "Bonjour" features highlights of Quebec and New England for the purpose of re-educating New Hampshire about the breadth of its French heritage, seen across the state in its Franco Americans. This episode is the inaugural broadcast, featuring an extended interview with co-host and professional photographer Celine Baribeau.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>Plante, Chantal;Baribeau, Celine</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2010 March 18</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>English, with some français</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
         <is>
           <t>21st century, New Hampshire</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Chantal Plante</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="n">
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
         <v>1</v>
       </c>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
         <is>
           <t>BCTV (Bedford Community Television)</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
+      <c r="X21" t="inlineStr">
         <is>
           <t>00:29:57</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr">
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
         <is>
           <t>Bedford, New Hampshire</t>
         </is>
       </c>
+      <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
       <c r="AC21" t="inlineStr"/>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;ShowID=3190 (full episode available here)</t>
-        </is>
-      </c>
+      <c r="AF21" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3190"&gt;http://72.71.246.74/cablecast/public/Show.aspx?ChannelID=1&amp;amp;ShowID=3190&lt;/a&gt; (full episode available here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="inlineStr"/>
       <c r="AI21" t="inlineStr"/>
       <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/0c0b370bce3aa9be1fa0b5a412a89a2a.png</t>
+        </is>
+      </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/0c0b370bce3aa9be1fa0b5a412a89a2a.png</t>
+          <t>Art and Architecture;Community: Customs and Social Life;Ethnicity and Collective Identity;Film and Television;Language and Linguistics;Manchester NH;New Hampshire;Personal History: Biography and Oral History</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
-        <is>
-          <t>Art and Architecture;Community: Customs and Social Life;Ethnicity and Collective Identity;Film and Television;Language and Linguistics;Manchester NH;New Hampshire;Personal History: Biography and Oral History</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>1255</v>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Paul Marion : The Poet of Lowell</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Paul Marion : The Poet of Lowell</t>
+          <t>Short online streaming video produced by Yankee Magazine. A "Web Exclusive" for the magazine's November/December 2009 edition. A brief look into the city of Lowell, Massachusetts and the man - poet Paul Marion - who has dedicated a public literary life to it. Marion is also known for his involvement with the small press, Loom Press, and for his compilation of Jack Kerouac's early writings, "Atop an Underwood."</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Short online streaming video produced by Yankee Magazine. A "Web Exclusive" for the magazine's November/December 2009 edition. A brief look into the city of Lowell, Massachusetts and the man - poet Paul Marion - who has dedicated a public literary life to it. Marion is also known for his involvement with the small press, Loom Press, and for his compilation of Jack Kerouac's early writings, "Atop an Underwood."</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>Shatwell, Justin</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Yankee Magazine</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Yankee Magazine</t>
+          <t>2009 November 17</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2009 November 17</t>
+          <t>Marion, Paul</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Marion, Paul</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Film</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2009, Lowell, Massachusetts</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
@@ -2718,114 +2656,111 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
+      <c r="X22" t="inlineStr">
         <is>
           <t>00:06:11</t>
         </is>
       </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr">
-        <is>
-          <t>http://new.yankeemagazine.com/video/paul-marion-poet-lowell (streaming video available here)</t>
-        </is>
-      </c>
+      <c r="AF22" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://new.yankeemagazine.com/video/paul-marion-poet-lowell"&gt;http://new.yankeemagazine.com/video/paul-marion-poet-lowell&lt;/a&gt; (streaming video available here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
       <c r="AI22" t="inlineStr"/>
       <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/76a48953c1f977eeadc990ee2a06b70b.jpg</t>
+        </is>
+      </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/76a48953c1f977eeadc990ee2a06b70b.jpg</t>
+          <t>Film and Television;Lowell MA;Mills and Mill Work;Poetry</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
-        <is>
-          <t>Film and Television;Lowell MA;Mills and Mill Work;Poetry</t>
-        </is>
-      </c>
-      <c r="AN22" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>1256</v>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Hard Work</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hard Work</t>
+          <t>Full title of the film: "Hard Work: 'To Make Both Ends Meet' : Maine Women's Voices, 1888." From Folkfilms.com: "In 1888 the Maine State Bureau of Industrial and Labor Statistics conducted a survey to assess working conditions for women in the state's shops and factories. The bureau hired Flora Haines of Bangor to complete the survey. She spoke with women in the workplace and handed out over six hundred questionnaires that asked about health and safety issues, wages and work hours, sanitary conditions in the boarding houses, and other matters....At the end of the questionnaire was this statement: 'Make any suggestions that you think will tend to improve your condition at work.' Hundreds of women responded....In this documentary the women's voices are brought to life again to tell the story of working conditions for women in the latter part of the 19th century in Maine. Using interviews, historical photos, and video from present day factories 'Hard Work' details the rise of the female labor force in the state's mills and factories and explores the conditions that women had to endure both on and off the job."</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Full title of the film: "Hard Work: 'To Make Both Ends Meet' : Maine Women's Voices, 1888." From Folkfilms.com: "In 1888 the Maine State Bureau of Industrial and Labor Statistics conducted a survey to assess working conditions for women in the state's shops and factories. The bureau hired Flora Haines of Bangor to complete the survey. She spoke with women in the workplace and handed out over six hundred questionnaires that asked about health and safety issues, wages and work hours, sanitary conditions in the boarding houses, and other matters....At the end of the questionnaire was this statement: 'Make any suggestions that you think will tend to improve your condition at work.' Hundreds of women responded....In this documentary the women's voices are brought to life again to tell the story of working conditions for women in the latter part of the 19th century in Maine. Using interviews, historical photos, and video from present day factories 'Hard Work' details the rise of the female labor force in the state's mills and factories and explores the conditions that women had to endure both on and off the job."</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>Sharkey, Jim (writer &amp; producer)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="n">
+      <c r="F23" t="n">
         <v>2004</v>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Bruce, Laureen (writer);Toner, Carol (writer &amp; commentator);Hough, Mazzie (narrator)</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bruce, Laureen (writer);Toner, Carol (writer &amp; commentator);Hough, Mazzie (narrator)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/61411507"&gt;661411507&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/61411507"&gt;661411507&lt;/a&gt;</t>
+          <t>1888, Maine</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1888, Maine</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
           <t>Folkfilms.com</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -2836,214 +2771,208 @@
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr">
-        <is>
-          <t>http://www.folkfilms.com/New_Folder/Hard_Work.htm http://www.folkfilms.com/Video/HARDWORK.wmv (preview available here) http://www.mpbn.net/Home/tabid/36/ctl/ViewItem/mid/3457/ItemId/14071/Default.aspx</t>
-        </is>
-      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.folkfilms.com/New_Folder/Hard_Work.htm"&gt;http://www.folkfilms.com/New_Folder/Hard_Work.htm&lt;/a&gt;&lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.folkfilms.com/Video/HARDWORK.wmv"&gt;http://www.folkfilms.com/Video/HARDWORK.wmv&lt;/a&gt; (preview available here) &lt;br/&gt;&lt;br/&gt;&lt;a href="http://www.mpbn.net/Home/tabid/36/ctl/ViewItem/mid/3457/ItemId/14071/Default.aspx"&gt;http://www.mpbn.net/Home/tabid/36/ctl/ViewItem/mid/3457/ItemId/14071/Default.aspx&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
       <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/a05ffaacf55dbe30e8381e221bbeeac7.jpg</t>
+        </is>
+      </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/a05ffaacf55dbe30e8381e221bbeeac7.jpg</t>
+          <t>Business and Economics;Emigration and Immigration;Family;Gender and Sexuality;Labor History;Maine;Mills and Mill Work;Personal History: Biography and Oral History;Social History</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
-        <is>
-          <t>Business and Economics;Emigration and Immigration;Family;Gender and Sexuality;Labor History;Maine;Mills and Mill Work;Personal History: Biography and Oral History;Social History</t>
-        </is>
-      </c>
-      <c r="AN23" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>1257</v>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Greetings from Aroostook: Postcard DVD</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Greetings from Aroostook: Postcard DVD</t>
+          <t>From Crown of Maine Productions: "'Greetings From Aroostook' is a seventeen minute DVD featuring spectacular scenery, people and wildlife of The County set to music. The DVD includes scenes throughout the area from the Million Dollar View south of Houlton to Ramsey Ledge in The Allagash. It's narrated by Layne Longfellow, relative of the poet. It includes activities from different seasons of the year from skiing and snowmobiling to hiking and kayaking. Various cultural events are included from the Acadian Festival in The Valley to the Midsommar Festival in New Sweden, and, of course, Fort Fairfield's Potato Blossom Festival. It even has a scene of youngsters picking potatoes at harvest time. It's a wonderful reminder of life in The County - 'The Way Maine Used To Be,' as some say. And it's a great gift idea for friends and family who live outside the area to give them a taste of home, or to entice them to visit."</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>From Crown of Maine Productions: "'Greetings From Aroostook' is a seventeen minute DVD featuring spectacular scenery, people and wildlife of The County set to music. The DVD includes scenes throughout the area from the Million Dollar View south of Houlton to Ramsey Ledge in The Allagash. It's narrated by Layne Longfellow, relative of the poet. It includes activities from different seasons of the year from skiing and snowmobiling to hiking and kayaking. Various cultural events are included from the Acadian Festival in The Valley to the Midsommar Festival in New Sweden, and, of course, Fort Fairfield's Potato Blossom Festival. It even has a scene of youngsters picking potatoes at harvest time. It's a wonderful reminder of life in The County - 'The Way Maine Used To Be,' as some say. And it's a great gift idea for friends and family who live outside the area to give them a taste of home, or to entice them to visit."</t>
+          <t>Jepson, Brenda N. (director)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jepson, Brenda N. (director)</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Watch: PREVIEW</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
         <v>2006</v>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Longfellow, Layne (narrator)</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Longfellow, Layne (narrator)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/76891153"&gt;76891153&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/76891153"&gt;76891153&lt;/a&gt;</t>
+          <t>2006; Aroostook County, Maine</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2006; Aroostook County, Maine</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
           <t>Crown of Maine Productions</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
+      <c r="X24" t="inlineStr">
         <is>
           <t>00:17:00</t>
         </is>
       </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>http://www.crownofmaineproductions.com/ArooGreetDVD.html</t>
-        </is>
-      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.crownofmaineproductions.com/ArooGreetDVD.html"&gt;http://www.crownofmaineproductions.com/ArooGreetDVD.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
       <c r="AI24" t="inlineStr"/>
       <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/cb9fcb311812bf7c25cd8c7d1a606b79.jpg</t>
+        </is>
+      </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/cb9fcb311812bf7c25cd8c7d1a606b79.jpg</t>
+          <t>Acadians;Aroostook County ME;Community: Customs and Social Life;Emigration and Immigration;Ethnicity and Collective Identity;Labor History;Native Americans</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
-        <is>
-          <t>Acadians;Aroostook County ME;Community: Customs and Social Life;Emigration and Immigration;Ethnicity and Collective Identity;Labor History;Native Americans</t>
-        </is>
-      </c>
-      <c r="AN24" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>1258</v>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>The Story of the Acadians: A Tale of Discovery, Tragedy, and Determination</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Story of the Acadians: A Tale of Discovery, Tragedy, and Determination</t>
+          <t>From Crown of Maine Productions: "'The Story of the Acadians' is a tale of discovery, tragedy and determination  of a peace loving people who never give up. Learn how the first French settlers brought with them pre-fabricated homes from France to North America in 1604, hear about their strong relations with the native people whose alliances helped to save their lives, witness the innovative designs of the French in the construction of the unique fortresses they built, as well as the intricate system of dykes they introduced into North America....Most of all, learn how the French became Acadians with a culture of their own  a culture of family values, of hard work and of a determination never to be destroyed despite numerous attacks by the British  assaults which culminated in one of the worst human tragedies of all time  the Deportation from Nova Scotia."</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>From Crown of Maine Productions: "'The Story of the Acadians' is a tale of discovery, tragedy and determination  of a peace loving people who never give up. Learn how the first French settlers brought with them pre-fabricated homes from France to North America in 1604, hear about their strong relations with the native people whose alliances helped to save their lives, witness the innovative designs of the French in the construction of the unique fortresses they built, as well as the intricate system of dykes they introduced into North America....Most of all, learn how the French became Acadians with a culture of their own  a culture of family values, of hard work and of a determination never to be destroyed despite numerous attacks by the British  assaults which culminated in one of the worst human tragedies of all time  the Deportation from Nova Scotia."</t>
+          <t>Jepson, Brenda N. (director)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jepson, Brenda N. (director)</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Watch: PREVIEW</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2006 (?)</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2006 (?)</t>
+          <t>Cyr, Don (featured historian);Duncan, William (illustrator);Longfellow, Layne (narrator)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Cyr, Don (featured historian);Duncan, William (illustrator);Longfellow, Layne (narrator)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/71009361"&gt;71009361&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/71009361"&gt;71009361&lt;/a&gt;</t>
+          <t>1604-2000, Canada, France, United States</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1604-2000, Canada, France, United States</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
           <t>Crown of Maine Productions</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -3058,214 +2987,208 @@
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>http://www.crownofmaineproductions.com/storyacadian.html</t>
-        </is>
-      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.crownofmaineproductions.com/storyacadian.html"&gt;http://www.crownofmaineproductions.com/storyacadian.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
       <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/4bc5ec363acc43ba335b0f5dd927e4a9.jpg</t>
+        </is>
+      </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/4bc5ec363acc43ba335b0f5dd927e4a9.jpg</t>
+          <t>Acadians;Death and Disaster;Ethnicity and Collective Identity;France;Great Britain;Language and Linguistics;Nova Scotia;Religion;United States;Violence</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
-        <is>
-          <t>Acadians;Death and Disaster;Ethnicity and Collective Identity;France;Great Britain;Language and Linguistics;Nova Scotia;Religion;United States;Violence</t>
-        </is>
-      </c>
-      <c r="AN25" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>1259</v>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Acadian Festival: Celebrate the St. John Valley's French Acadian Heritage</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Acadian Festival: Celebrate the St. John Valley's French Acadian Heritage</t>
+          <t>From Crown of Maine Productions: "'Acadian Festival' is a lively, one-hour show that features the French of the St John Valley, Maine, celebrating their Acadian history  from a re-enactment of the arrival of the Acadians in 1785 to fascinating demonstrations of Acadian traditions that could be taken straight from the pages of 'Evangeline.'...Music, dance, food, spinning, weaving, basket and snowshoe making are just a few of the Treasures of the Valley featured in this film."</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>From Crown of Maine Productions: "'Acadian Festival' is a lively, one-hour show that features the French of the St John Valley, Maine, celebrating their Acadian history  from a re-enactment of the arrival of the Acadians in 1785 to fascinating demonstrations of Acadian traditions that could be taken straight from the pages of 'Evangeline.'...Music, dance, food, spinning, weaving, basket and snowshoe making are just a few of the Treasures of the Valley featured in this film."</t>
+          <t>Jepson, Brenda N. (director)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Jepson, Brenda N. (director)</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Watch: PREVIEW</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="n">
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
         <v>2003</v>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>English, with some French</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/62585434"&gt;62585434&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/62585434"&gt;62585434&lt;/a&gt;</t>
+          <t>20th century, St. John River Valley, Maine</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>20th century, St. John River Valley, Maine</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
           <t>Crown of Maine Productions</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="n">
+      <c r="X26" t="n">
         <v>0.041666667</v>
       </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr">
-        <is>
-          <t>http://www.crownofmaineproductions.com/festival.html</t>
-        </is>
-      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.crownofmaineproductions.com/festival.html"&gt;http://www.crownofmaineproductions.com/festival.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
       <c r="AI26" t="inlineStr"/>
       <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/6c219487b619f6a8d288fb9171ec245e.jpg</t>
+        </is>
+      </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/6c219487b619f6a8d288fb9171ec245e.jpg</t>
+          <t>Acadians;Community: Customs and Social Life;Maine;Music;St. John River Valley</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
-        <is>
-          <t>Acadians;Community: Customs and Social Life;Maine;Music;St. John River Valley</t>
-        </is>
-      </c>
-      <c r="AN26" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>1260</v>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>The Franco-American Dimension: New Hampshire</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Franco-American Dimension: New Hampshire</t>
+          <t>Film on the history of Franco-Americans in the state of New Hampshire. A series of photographs and paintings with descriptive narration.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Film on the history of Franco-Americans in the state of New Hampshire. A series of photographs and paintings with descriptive narration.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>Eaton, Aurore Dionne</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="n">
+      <c r="F27" t="n">
         <v>1991</v>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Marchand, Robert (narrator)</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Marchand, Robert (narrator)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/74823189"&gt;74823189&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/74823189"&gt;74823189&lt;/a&gt;</t>
+          <t>20th century, New Hampshire</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>20th century, New Hampshire</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
           <t>Association Canado-Américaine</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
+      <c r="X27" t="inlineStr">
         <is>
           <t>00:27:00</t>
         </is>
       </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -3278,202 +3201,196 @@
       <c r="AI27" t="inlineStr"/>
       <c r="AJ27" t="inlineStr"/>
       <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Community: Customs and Social Life;Emigration and Immigration;Ethnicity and Collective Identity;New Hampshire</t>
+        </is>
+      </c>
       <c r="AM27" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Emigration and Immigration;Ethnicity and Collective Identity;New Hampshire</t>
-        </is>
-      </c>
-      <c r="AN27" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>1261</v>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Le Grand Jack</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Le Grand Jack</t>
+          <t>Part-fiction documentary on the life and works of Jack Kerouac, a writer from Lowell, Massachusetts, most famous for his Beat Generation novel, "On the Road." Pris de l'ONF: "Docufiction sur Jack Kerouac, un des membres les plus importants du mouvement de la Beat Generation.  Sur la route , une de ses œuvres les plus connues a rendu l'écrivain et poiète américain célièbre apriès sa mort en 1969. Ses textes ont grandement contribué à  la révolution culturelle, sexuelle et sociale des années 1960. Archives, photos, entrevues et reconstitution d'époque, servent de trame au réalisateur pour décortiquer le mythe du héros."</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Part-fiction documentary on the life and works of Jack Kerouac, a writer from Lowell, Massachusetts, most famous for his Beat Generation novel, "On the Road." Pris de l'ONF: "Docufiction sur Jack Kerouac, un des membres les plus importants du mouvement de la Beat Generation.  Sur la route , une de ses œuvres les plus connues a rendu l'écrivain et poiète américain célièbre apriès sa mort en 1969. Ses textes ont grandement contribué à  la révolution culturelle, sexuelle et sociale des années 1960. Archives, photos, entrevues et reconstitution d'époque, servent de trame au réalisateur pour décortiquer le mythe du héros."</t>
+          <t>Chiasson, Herménégilde</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Chiasson, Herménégilde</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Watch/Regarder: FILM</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
         <v>1987</v>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Nadon, Guy;Rudder, Michael</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Nadon, Guy;Rudder, Michael</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/40932967"&gt;40932967&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/40932967"&gt;40932967&lt;/a&gt;</t>
+          <t>20e siiècle; Etats-Unis</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>20e siiècle; Etats-Unis</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
           <t>Office national du film du Canada</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>00:54:39</t>
         </is>
       </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr">
-        <is>
-          <t>http://www.onf.ca/film/grand_jack/</t>
-        </is>
-      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.onf.ca/film/grand_jack/"&gt;http://www.onf.ca/film/grand_jack/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/2a5513c20a19482bac02358f8d500161.jpg</t>
+        </is>
+      </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/2a5513c20a19482bac02358f8d500161.jpg</t>
+          <t>Fiction and Literature;Film and Television;Lowell MA;New York NY;Personal History: Biography and Oral History;Québec;San Francisco CA</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
-        <is>
-          <t>Fiction and Literature;Film and Television;Lowell MA;New York NY;Personal History: Biography and Oral History;Québec;San Francisco CA</t>
-        </is>
-      </c>
-      <c r="AN28" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>1262</v>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Si je comprends bien... (If I Really Understand...)</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Si je comprends bien... (If I Really Understand...)</t>
+          <t>A documentary that captures sentiments toward francophone cultures between France, Quebec, and New England in the context of Quebec's 1980 sovereignty referendum. From WorldCat: "Features interviews with French Canadians and Franco-Americans about the importance of keeping the French language alive in New England and how Franco-Americans are in danger of losing their identity if they do not."</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A documentary that captures sentiments toward francophone cultures between France, Quebec, and New England in the context of Quebec's 1980 sovereignty referendum. From WorldCat: "Features interviews with French Canadians and Franco-Americans about the importance of keeping the French language alive in New England and how Franco-Americans are in danger of losing their identity if they do not."</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>Levine, Ben (director)</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
+      <c r="F29" t="n">
         <v>1980</v>
       </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/56624171"&gt;56624171&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/56624171"&gt;56624171&lt;/a&gt;</t>
+          <t>1980, New England, Quebec</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>1980, New England, Quebec</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
           <t>Ben Levine Television</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
+      <c r="X29" t="inlineStr">
         <is>
           <t>50 min.</t>
         </is>
       </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
@@ -3486,172 +3403,166 @@
       <c r="AI29" t="inlineStr"/>
       <c r="AJ29" t="inlineStr"/>
       <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Acculturation and Assimilation;Ethnicity and Collective Identity;Government and Politics;Language and Linguistics;Lewiston ME;Maine;New England;Québec</t>
+        </is>
+      </c>
       <c r="AM29" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Ethnicity and Collective Identity;Government and Politics;Language and Linguistics;Lewiston ME;Maine;New England;Québec</t>
-        </is>
-      </c>
-      <c r="AN29" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>1265</v>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Maine Watch with Jennifer Rooks: Franco-Americans in Photos</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>Maine Watch with Jennifer Rooks: Franco-Americans in Photos</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t xml:space="preserve">Maine Public Broadcasting Network television show focusing on news, events, and people important to the state of Maine. Here, part two of a three-part episode. "Franco-Americans in Photos" is an interview with journalist Dyke Hendrickson, author of the book "Quiet Presence" (1980), on his more recent publication entitled "Franco-Americans of Maine," a cultural photo history._x000D_
 </t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Austin, Mark D. (director)</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2010 June 24</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2010 June 24</t>
+          <t>Rooks, Jennifer (host)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rooks, Jennifer (host)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
         <is>
           <t>20th century, Maine</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>MPBN</t>
         </is>
       </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
+      <c r="X30" t="inlineStr">
         <is>
           <t>00:27:28</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr">
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
         <is>
           <t>Portland, Maine</t>
         </is>
       </c>
+      <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
       <c r="AC30" t="inlineStr"/>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr">
-        <is>
-          <t>http://video.mpbn.net/video/1531284767/</t>
-        </is>
-      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://video.mpbn.net/video/1531284767/"&gt;http://video.mpbn.net/video/1531284767/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
       <c r="AI30" t="inlineStr"/>
       <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/7ad1c715a639664b5e6f15f173cf432a.jpg</t>
+        </is>
+      </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/7ad1c715a639664b5e6f15f173cf432a.jpg</t>
+          <t>Biddeford ME;Ethnicity and Collective Identity;Lewiston ME;Madawaska ME;Maine;Personal History: Biography and Oral History;Raymond ME;Religion;Waterville ME</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
-        <is>
-          <t>Biddeford ME;Ethnicity and Collective Identity;Lewiston ME;Madawaska ME;Maine;Personal History: Biography and Oral History;Raymond ME;Religion;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN30" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>1266</v>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Roughing the Uppers : The Great Shoe Strike of 1937</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Roughing the Uppers : The Great Shoe Strike of 1937</t>
+          <t>From the Lewiston Sun Journal: "The documentary tells the story of a strike that involved thousands of shoe workers and more than a dozen factories in Lewiston and Auburn [Maine]. Seeking higher wages and recognition of their union affiliation with the newly formed Congress of Industrial Organizations, the largely Franco-American workers called for a strike on March 24, 1937, during a mass meeting at Lewiston's city hall."</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>From the Lewiston Sun Journal: "The documentary tells the story of a strike that involved thousands of shoe workers and more than a dozen factories in Lewiston and Auburn [Maine]. Seeking higher wages and recognition of their union affiliation with the newly formed Congress of Industrial Organizations, the largely Franco-American workers called for a strike on March 24, 1937, during a mass meeting at Lewiston's city hall."</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t xml:space="preserve">Branham, Robert J. ;Francoeur, Lynn ;Surkis, William D. </t>
         </is>
       </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="n">
+      <c r="F31" t="n">
         <v>1992</v>
       </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Film</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/28185042"&gt;28185042&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
         <is>
           <t>Documentary</t>
         </is>
       </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
@@ -3659,191 +3570,185 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr">
+      <c r="X31" t="inlineStr">
         <is>
           <t>00:55:00</t>
         </is>
       </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
       <c r="AC31" t="inlineStr"/>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>http://oldfilm.org/content/roughing-uppers-great-shoe-strike-1937  http://news.google.com/newspapers?nid=1914&amp;dat=19931108&amp;id=JGAgAAAAIBAJ&amp;sjid=pWUFAAAAIBAJ&amp;pg=1170,1589856</t>
-        </is>
-      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://oldfilm.org/content/roughing-uppers-great-shoe-strike-1937"&gt;http://oldfilm.org/content/roughing-uppers-great-shoe-strike-1937&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://news.google.com/newspapers?nid=1914&amp;amp;dat=19931108&amp;amp;id=JGAgAAAAIBAJ&amp;amp;sjid=pWUFAAAAIBAJ&amp;amp;pg=1170,1589856"&gt;http://news.google.com/newspapers?nid=1914&amp;amp;dat=19931108&amp;amp;id=JGAgAAAAIBAJ&amp;amp;sjid=pWUFAAAAIBAJ&amp;amp;pg=1170,1589856&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
       <c r="AI31" t="inlineStr"/>
       <c r="AJ31" t="inlineStr"/>
       <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>Auburn ME;Death and Disaster;Film and Television;Labor History;Lewiston ME;Mills and Mill Work;Personal History: Biography and Oral History;Social History;Violence</t>
+        </is>
+      </c>
       <c r="AM31" t="inlineStr">
-        <is>
-          <t>Auburn ME;Death and Disaster;Film and Television;Labor History;Lewiston ME;Mills and Mill Work;Personal History: Biography and Oral History;Social History;Violence</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>1267</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>ZONE LIBRE: Les Franco-Américains_x000D_
 du Maine</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Du Radio-Canada: "[Ici] Jean-Michel Leprince et Pierre Devroede ont rencontré des Franco-Américains de la communauté de Waterville, dans le Maine, qui réapprennent à  parler français."</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Du Radio-Canada: "[Ici] Jean-Michel Leprince et Pierre Devroede ont rencontré des Franco-Américains de la communauté de Waterville, dans le Maine, qui réapprennent à  parler français."</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>Leprince, Jean-Michel;Devroede, Pierre</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>2001 septembre 7</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Audio</t>
         </is>
       </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr">
+      <c r="Z32" t="inlineStr">
         <is>
           <t>Waterville, Maine</t>
         </is>
       </c>
+      <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>http://www.radio-canada.ca/actualite/zonelibre/01-09/franco.html</t>
-        </is>
-      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.radio-canada.ca/actualite/zonelibre/01-09/franco.html"&gt;http://www.radio-canada.ca/actualite/zonelibre/01-09/franco.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
       <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/816497246f1226fce6be61f58f289b43.gif</t>
+        </is>
+      </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/816497246f1226fce6be61f58f289b43.gif</t>
+          <t>Death and Disaster;Emigration and Immigration;Family;Language and Linguistics;New England;Québec;Waterville ME</t>
         </is>
       </c>
       <c r="AM32" t="inlineStr">
-        <is>
-          <t>Death and Disaster;Emigration and Immigration;Family;Language and Linguistics;New England;Québec;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>1298</v>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Réveil...Waking Up French</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Réveil...Waking Up French</t>
+          <t>Documentary film about Franco American culture and language in New England. Press release from Watching Place Productions: "Explores the struggle for cultural survival among the French-Canadian, Franco-American communities of New England. It reveals the importance of history and heritage understanding and demonstrates how languages can be reacquired for personal and community renewal."</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Documentary film about Franco American culture and language in New England. Press release from Watching Place Productions: "Explores the struggle for cultural survival among the French-Canadian, Franco-American communities of New England. It reveals the importance of history and heritage understanding and demonstrates how languages can be reacquired for personal and community renewal."</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>Levine, Ben (director)</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="n">
+      <c r="F33" t="n">
         <v>2003</v>
       </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t>English, with some français</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Moving Image</t>
+        </is>
+      </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Moving Image</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/64637065"&gt;64637065&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/64637065"&gt;64637065&lt;/a&gt;</t>
+          <t>20th century, New England</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20th century, New England</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
           <t>Watching Place Productions</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
@@ -3858,89 +3763,86 @@
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>http://www.wakingupfrench.com</t>
-        </is>
-      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.wakingupfrench.com"&gt;http://www.wakingupfrench.com&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="inlineStr"/>
       <c r="AI33" t="inlineStr"/>
       <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/011b419d61c832b15e5b8f32deec0083.jpg</t>
+        </is>
+      </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/011b419d61c832b15e5b8f32deec0083.jpg</t>
+          <t>Acculturation and Assimilation;Augusta ME;Community: Customs and Social Life;Ethnicity and Collective Identity;La Beauce QC;Language and Linguistics;Lewiston ME;Madawaska ME;Music;Religion;Social History;Waterville ME;Woonsocket RI;Youth</t>
         </is>
       </c>
       <c r="AM33" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Augusta ME;Community: Customs and Social Life;Ethnicity and Collective Identity;La Beauce QC;Language and Linguistics;Lewiston ME;Madawaska ME;Music;Religion;Social History;Waterville ME;Woonsocket RI;Youth</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>1430</v>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>John Dufresne's Requiem Mass</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>John Dufresne's Requiem Mass</t>
+          <t>Georgia Public Broadcasting radio interview of Worcester, Massachusetts native John Dufresne on the occasion of his new novel, "Requiem, Mass." Discussion about the novel's characters and setting, Dufresne's ideas about autobiographical writing and writing in general, as well as some aspects of the author's Catholicism. At the end of the interview, Dufresne reads a passage from the novel (p. 168).</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Georgia Public Broadcasting radio interview of Worcester, Massachusetts native John Dufresne on the occasion of his new novel, "Requiem, Mass." Discussion about the novel's characters and setting, Dufresne's ideas about autobiographical writing and writing in general, as well as some aspects of the author's Catholicism. At the end of the interview, Dufresne reads a passage from the novel (p. 168).</t>
+          <t>Freeman, Jesse (interviewer)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Freeman, Jesse (interviewer)</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
           <t>Listen: PODCAST</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2009 January 23</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2009 January 23</t>
+          <t>Dufresne, John</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Dufresne, John</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Streaming audio</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Streaming audio</t>
+          <t>Audio Recording</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Audio Recording</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/181139334"&gt;181139334&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
@@ -3948,107 +3850,104 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>Mp3</t>
         </is>
       </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
         <is>
           <t>00:29:00</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr">
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
+      <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>http://covertocover.podbean.com/2009/01/25/john-dufresne-requiem-mass/  http://gpbcovertocover.blogspot.com/2009/01/john-dufresnes-requiem-mass.html</t>
-        </is>
-      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://covertocover.podbean.com/2009/01/25/john-dufresne-requiem-mass/"&gt;http://covertocover.podbean.com/2009/01/25/john-dufresne-requiem-mass/&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://gpbcovertocover.blogspot.com/2009/01/john-dufresnes-requiem-mass.html"&gt;http://gpbcovertocover.blogspot.com/2009/01/john-dufresnes-requiem-mass.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="inlineStr"/>
       <c r="AI34" t="inlineStr"/>
       <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/1dd9f4d9b2c603838360b8bd7ce7ae44.jpg</t>
+        </is>
+      </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/1dd9f4d9b2c603838360b8bd7ce7ae44.jpg</t>
+          <t>Audio;Criticism and Review;Fiction and Literature;Georgia;Personal History: Biography and Oral History;Worcester MA</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
-        <is>
-          <t>Audio;Criticism and Review;Fiction and Literature;Georgia;Personal History: Biography and Oral History;Worcester MA</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>1431</v>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>My Brother the Murderer</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>My Brother the Murderer</t>
+          <t>Online feature entitled "What happens when the world finds out that God is dead?: Ron Currie, Jr. reads from his novel." The feature is a link to the author's reading of the chapter "My Brother the Murderer" from his novel titled "God is Dead" (2007). In this piece, a man faces public and private alienation for the abominable actions of his brother now locked away in an Augusta, Maine mental hospital.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Online feature entitled "What happens when the world finds out that God is dead?: Ron Currie, Jr. reads from his novel." The feature is a link to the author's reading of the chapter "My Brother the Murderer" from his novel titled "God is Dead" (2007). In this piece, a man faces public and private alienation for the abominable actions of his brother now locked away in an Augusta, Maine mental hospital.</t>
+          <t>Currie, Ron, Jr.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Currie, Ron, Jr.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
           <t>Listen: AUDIO</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
         <is>
           <t>2009 Spring</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Streaming audio</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Streaming audio</t>
+          <t>Audio Recording</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Audio Recording</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/74460731"&gt;74460731&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
@@ -4056,307 +3955,298 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>WAV</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
         <is>
           <t>00:27:39</t>
         </is>
       </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Bosphorus Art Project Quarterly</t>
+        </is>
+      </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>Bosphorus Art Project Quarterly</t>
-        </is>
-      </c>
-      <c r="AG35" t="inlineStr">
-        <is>
-          <t>http://www.bapq.net/spring-09/feature_ron-currie_reads.asp (full audio available)</t>
-        </is>
-      </c>
-      <c r="AH35" t="n">
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.bapq.net/spring-09/feature_ron-currie_reads.asp"&gt;http://www.bapq.net/spring-09/feature_ron-currie_reads.asp&lt;/a&gt; (full audio available)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG35" t="n">
         <v>4</v>
       </c>
+      <c r="AH35" t="inlineStr"/>
       <c r="AI35" t="inlineStr"/>
       <c r="AJ35" t="inlineStr"/>
       <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>Augusta ME;Death and Disaster;Family;Gender and Sexuality;Maine;Violence;Waterville ME</t>
+        </is>
+      </c>
       <c r="AM35" t="inlineStr">
-        <is>
-          <t>Augusta ME;Death and Disaster;Family;Gender and Sexuality;Maine;Violence;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN35" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>1432</v>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Les objectifs de Paul LePage à  titre de gouverneur du Maine</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Les objectifs de Paul LePage à  titre de gouverneur du Maine</t>
+          <t>Une vidéo des nouvelles sur le début de l'administration du gouverneur Paul Lepage dans l'État du Maine, et certains de ses visions pour l'avenir de l'Etat.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Une vidéo des nouvelles sur le début de l'administration du gouverneur Paul Lepage dans l'État du Maine, et certains de ses visions pour l'avenir de l'Etat.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>L'Italien, Rosaire</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>2011 janvier 5</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2011, Maine</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>RDI</t>
         </is>
       </c>
+      <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr">
+      <c r="X36" t="inlineStr">
         <is>
           <t>00:06:38</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr">
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr">
         <is>
           <t>Canada</t>
         </is>
       </c>
+      <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>http://www.radio-canada.ca/regions/atlantique/2011/01/05/003-paul-lepage-serment.shtml#</t>
-        </is>
-      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.radio-canada.ca/regions/atlantique/2011/01/05/003-paul-lepage-serment.shtml#"&gt;http://www.radio-canada.ca/regions/atlantique/2011/01/05/003-paul-lepage-serment.shtml#&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="inlineStr"/>
       <c r="AI36" t="inlineStr"/>
       <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/36e1e144b7349f2213ef721c7237eff7.jpg</t>
+        </is>
+      </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/36e1e144b7349f2213ef721c7237eff7.jpg</t>
+          <t>Augusta ME;Ethnicity and Collective Identity;Government and Politics;Maine;Waterville ME</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
-        <is>
-          <t>Augusta ME;Ethnicity and Collective Identity;Government and Politics;Maine;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>1433</v>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Quittons Pour Mieux Vivre, Let's Leave for a Better Life : A Story of Franco-Americans in Maine</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Quittons Pour Mieux Vivre, Let's Leave for a Better Life : A Story of Franco-Americans in Maine</t>
+          <t>Dramatic student portrayal of French Canadian immigration to Maine at the beginning of the twentieth century. Contains scenes of family life in Quebec, dramatic reenactment of work in the mills of Maine, prayer and party in the United States, and various music and dance. Film adaptation of a stage production.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dramatic student portrayal of French Canadian immigration to Maine at the beginning of the twentieth century. Contains scenes of family life in Quebec, dramatic reenactment of work in the mills of Maine, prayer and party in the United States, and various music and dance. Film adaptation of a stage production.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>Hyde School;Brunswick High School;Searles, James (project director);Tibbetts, Michelle (student project director);Best, Calvin (student project director)</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="n">
+      <c r="F37" t="n">
         <v>1980</v>
       </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/63898970"&gt;63898970&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/63898970"&gt;63898970&lt;/a&gt;</t>
+          <t>1920, Maine</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>1920, Maine</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
           <t>Documentary</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Fuller, David</t>
         </is>
       </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>00:30:00</t>
         </is>
       </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>http://www.maine.gov/msl/libs/media/subjects/mshist.htm</t>
-        </is>
-      </c>
+      <c r="AF37" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.maine.gov/msl/libs/media/subjects/mshist.htm"&gt;http://www.maine.gov/msl/libs/media/subjects/mshist.htm&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="inlineStr"/>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/6c5f04a9525fb711776a7c3a4324bae7.jpg</t>
+        </is>
+      </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/6c5f04a9525fb711776a7c3a4324bae7.jpg</t>
+          <t>Canada;Community: Customs and Social Life;Education;Emigration and Immigration;Ethnicity and Collective Identity;Film and Television;Maine;Mills and Mill Work;Music;Performing Arts;Québec;Social History;Youth</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
-        <is>
-          <t>Canada;Community: Customs and Social Life;Education;Emigration and Immigration;Ethnicity and Collective Identity;Film and Television;Maine;Mills and Mill Work;Music;Performing Arts;Québec;Social History;Youth</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>1435</v>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Milltown</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Milltown</t>
+          <t xml:space="preserve">Theatrical portrayal of a girl seeing her ancestors in their belongings, their letters, and the mills in which they worked. Reenactment of life in the Amoskeag mill complex in Manchester, New Hampshire. Many video clips and photos of that same complex, much of which has since been demolished. From WorldCat: " From WorldCat: "Essai cinématographique de style impressionniste sur l'immigration et la vie des franco-canadiens dans les petites villes du textile de la Nouvelle-Angleterre durant les années 1880-1930, aè partir de l'exemple de Manchester, au New Hampshire. Illustration d'objets et de photos d'époque. Regard sur la démolition des entrepoêts et des filatures actuellement en cours. Film sans commentaire."	</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Theatrical portrayal of a girl seeing her ancestors in their belongings, their letters, and the mills in which they worked. Reenactment of life in the Amoskeag mill complex in Manchester, New Hampshire. Many video clips and photos of that same complex, much of which has since been demolished. From WorldCat: " From WorldCat: "Essai cinématographique de style impressionniste sur l'immigration et la vie des franco-canadiens dans les petites villes du textile de la Nouvelle-Angleterre durant les années 1880-1930, aè partir de l'exemple de Manchester, au New Hampshire. Illustration d'objets et de photos d'époque. Regard sur la démolition des entrepoêts et des filatures actuellement en cours. Film sans commentaire."	</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t xml:space="preserve">Perreault, Denise Arel ;Samson, Gary </t>
         </is>
       </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
+      <c r="F38" t="n">
         <v>1977</v>
       </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/77159416"&gt;77159416&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/77159416"&gt;77159416&lt;/a&gt;</t>
+          <t>1970s, Manchester, New Hampshire</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>1970s, Manchester, New Hampshire</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
           <t>Experimental</t>
         </is>
       </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
@@ -4364,12 +4254,12 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
+      <c r="X38" t="inlineStr">
         <is>
           <t>00:10:00</t>
         </is>
       </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
@@ -4382,64 +4272,61 @@
       <c r="AI38" t="inlineStr"/>
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Emigration and Immigration;Ethnicity and Collective Identity;Film and Television;Labor History;Manchester NH;Mills and Mill Work;New England;Québec;Social History</t>
+        </is>
+      </c>
       <c r="AM38" t="inlineStr">
-        <is>
-          <t>Emigration and Immigration;Ethnicity and Collective Identity;Film and Television;Labor History;Manchester NH;Mills and Mill Work;New England;Québec;Social History</t>
-        </is>
-      </c>
-      <c r="AN38" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>1488</v>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Acadian Home Cooking : At Mom's Apron Strings</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Acadian Home Cooking : At Mom's Apron Strings</t>
+          <t>Oral interview with the owner of Café de le Place in Madawaska, Maine. The role of food in his family life and historically in the lives of the Acadians of the St. John River Valley. Some descriptions of famous Acadian dishes. Recorded in the Story Bank mobile recording studio at the 2009 American Folk Festival in Bangor, Maine. Presented in video montage form: interview audio with pictures of the interviewee, his family, and his work.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Oral interview with the owner of Café de le Place in Madawaska, Maine. The role of food in his family life and historically in the lives of the Acadians of the St. John River Valley. Some descriptions of famous Acadian dishes. Recorded in the Story Bank mobile recording studio at the 2009 American Folk Festival in Bangor, Maine. Presented in video montage form: interview audio with pictures of the interviewee, his family, and his work.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>Corbin, Michael;Rosenthal, Rob</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>2009 March 5</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Audio Recording</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2009, Bangor, Madawaska, Maine</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
@@ -4448,102 +4335,99 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
+      <c r="X39" t="inlineStr">
         <is>
           <t>00:04:07</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr">
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr">
         <is>
           <t>Bangor, Maine</t>
         </is>
       </c>
+      <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr">
-        <is>
-          <t>http://storybankmaine.org/2009/03/05/acadian-chef-michael-corbin/</t>
-        </is>
-      </c>
+      <c r="AF39" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://storybankmaine.org/2009/03/05/acadian-chef-michael-corbin/"&gt;http://storybankmaine.org/2009/03/05/acadian-chef-michael-corbin/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
       <c r="AI39" t="inlineStr"/>
       <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/81338ba44ed326a2d957d7e7f799c9fb.jpg</t>
+        </is>
+      </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/81338ba44ed326a2d957d7e7f799c9fb.jpg</t>
+          <t>Acadians;Bangor ME;Community: Customs and Social Life;Ethnicity and Collective Identity;Family;Food;Grand Isle ME;Madawaska ME;Personal History: Biography and Oral History;St. John River Valley</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
-        <is>
-          <t>Acadians;Bangor ME;Community: Customs and Social Life;Ethnicity and Collective Identity;Family;Food;Grand Isle ME;Madawaska ME;Personal History: Biography and Oral History;St. John River Valley</t>
-        </is>
-      </c>
-      <c r="AN39" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>1489</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Growing Up Franco In Lewiston</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Growing Up Franco In Lewiston</t>
+          <t>Oral interview with a woman recalling her youth and family in Lewiston, Maine. Her memories of the pervasiveness of French language and culture in the first half of the twentieth century, and her thoughts on the decline of French language and community. Recollections of her family's Catholic piety. The ways in which French language and Franco American culture remain part of her adult life. Recorded in the Story Bank mobile recording studio at the 2009 American Folk Festival in Bangor, Maine.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Oral interview with a woman recalling her youth and family in Lewiston, Maine. Her memories of the pervasiveness of French language and culture in the first half of the twentieth century, and her thoughts on the decline of French language and community. Recollections of her family's Catholic piety. The ways in which French language and Franco American culture remain part of her adult life. Recorded in the Story Bank mobile recording studio at the 2009 American Folk Festival in Bangor, Maine.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>Lothian, Mona</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2009 November 12</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2009 November 12</t>
+          <t>Rosenthal, Rob;Mundell, Kathleen;Lockhart, Jessica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rosenthal, Rob;Mundell, Kathleen;Lockhart, Jessica</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Streaming Audio </t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Streaming Audio </t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
           <t>Audio Recording</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
         <is>
           <t>20th century and 21st century, Bangor, Lewiston, Maine</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
@@ -4554,92 +4438,89 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr">
+      <c r="Z40" t="inlineStr">
         <is>
           <t>Bangor, Maine</t>
         </is>
       </c>
+      <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>http://storybankmaine.org/2009/11/12/growing-up-franco-in-lewiston/</t>
-        </is>
-      </c>
+      <c r="AF40" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://storybankmaine.org/2009/11/12/growing-up-franco-in-lewiston/"&gt;http://storybankmaine.org/2009/11/12/growing-up-franco-in-lewiston/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
       <c r="AI40" t="inlineStr"/>
       <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/0c3fe9d6420a3a4fa32f3ac33f6da25e.jpg</t>
+        </is>
+      </c>
       <c r="AL40" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/0c3fe9d6420a3a4fa32f3ac33f6da25e.jpg</t>
+          <t>Acculturation and Assimilation;Bangor ME;Community: Customs and Social Life;Education;Ethnicity and Collective Identity;Food;Language and Linguistics;Lewiston ME;Mills and Mill Work;Personal History: Biography and Oral History;Religion</t>
         </is>
       </c>
       <c r="AM40" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Bangor ME;Community: Customs and Social Life;Education;Ethnicity and Collective Identity;Food;Language and Linguistics;Lewiston ME;Mills and Mill Work;Personal History: Biography and Oral History;Religion</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>1529</v>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Hot Lunch : In the Kitchen at Biddeford High School</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hot Lunch : In the Kitchen at Biddeford High School</t>
+          <t>Audio recording of kitchen and cafeteria workers of Biddeford High School in Biddeford, Maine, accompanied by a video photo montage. Brief interviews during the workday and short profiles of the kitchen staff.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Audio recording of kitchen and cafeteria workers of Biddeford High School in Biddeford, Maine, accompanied by a video photo montage. Brief interviews during the workday and short profiles of the kitchen staff.</t>
+          <t>Dilling, Audrey;Lovell, Catherine (photography)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Dilling, Audrey;Lovell, Catherine (photography)</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
           <t>Watch: SLIDESHOW w/ AUDIO</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
         <is>
           <t>2010 February</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Video Recording</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2009; Biddeford, Maine</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
@@ -4648,94 +4529,91 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr">
+      <c r="X41" t="inlineStr">
         <is>
           <t>00:04:10</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr">
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr">
         <is>
           <t>Biddeford, Maine</t>
         </is>
       </c>
+      <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>http://www.vimeo.com/9717261  http://www.audreydilling.com/about/</t>
-        </is>
-      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.vimeo.com/9717261"&gt;http://www.vimeo.com/9717261&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.audreydilling.com/about/"&gt;http://www.audreydilling.com/about/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr"/>
       <c r="AH41" t="inlineStr"/>
       <c r="AI41" t="inlineStr"/>
       <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/50154d580aacbf745cd6dec2940aaf47.JPG</t>
+        </is>
+      </c>
       <c r="AL41" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/50154d580aacbf745cd6dec2940aaf47.JPG</t>
+          <t>Biddeford ME;Community: Customs and Social Life;Education;Food;Labor History;Personal History: Biography and Oral History;Social History;Youth</t>
         </is>
       </c>
       <c r="AM41" t="inlineStr">
-        <is>
-          <t>Biddeford ME;Community: Customs and Social Life;Education;Food;Labor History;Personal History: Biography and Oral History;Social History;Youth</t>
-        </is>
-      </c>
-      <c r="AN41" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>1531</v>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Hot Lunch</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hot Lunch</t>
+          <t>Documentary radio piece on the cooks and servers - the "lunch ladies" - in the kitchen at Biddeford High School in Biddeford, Maine. How their work often transcends food service and their relationships with students become compassionate and somewhat parental. This recording is a student project of the SALT Institute in Portland, Maine. Broadcast by New Hampshire Public Radio on the program "Word of Mouth," January 7, 2010.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Documentary radio piece on the cooks and servers - the "lunch ladies" - in the kitchen at Biddeford High School in Biddeford, Maine. How their work often transcends food service and their relationships with students become compassionate and somewhat parental. This recording is a student project of the SALT Institute in Portland, Maine. Broadcast by New Hampshire Public Radio on the program "Word of Mouth," January 7, 2010.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>Dilling, Audrey</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>2009 Fall</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Audio Recording</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2009, Biddeford, Maine</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -4744,90 +4622,87 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr">
+      <c r="X42" t="inlineStr">
         <is>
           <t>00:05:11</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr">
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr">
         <is>
           <t>Biddeford, Maine</t>
         </is>
       </c>
+      <c r="AA42" t="inlineStr"/>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>http://www.salt.edu/studentwork/radio/?studentwork_id=26  http://www.nhpr.org/node/28576  http://www.audreydilling.com/about/</t>
-        </is>
-      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.salt.edu/studentwork/radio/?studentwork_id=26"&gt;http://www.salt.edu/studentwork/radio/?studentwork_id=26&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.nhpr.org/node/28576"&gt;http://www.nhpr.org/node/28576&lt;/a&gt; &lt;br/&gt;&lt;br/&gt; &lt;a href="http://www.audreydilling.com/about/"&gt;http://www.audreydilling.com/about/&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="inlineStr"/>
       <c r="AI42" t="inlineStr"/>
       <c r="AJ42" t="inlineStr"/>
       <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>Biddeford ME;Community: Customs and Social Life;Education;Food;Labor History;Personal History: Biography and Oral History;Social History;Youth</t>
+        </is>
+      </c>
       <c r="AM42" t="inlineStr">
-        <is>
-          <t>Biddeford ME;Community: Customs and Social Life;Education;Food;Labor History;Personal History: Biography and Oral History;Social History;Youth</t>
-        </is>
-      </c>
-      <c r="AN42" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>1532</v>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>No Praise, No Blame, Just So</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>No Praise, No Blame, Just So</t>
+          <t>Radio documentary piece on the violent invasion of the Waterville, Maine, convent of the Servants of the Blessed Sacrament in 1996. The death of two nuns, the recollections of surviving sisters, and how their community has chosen to live and express its forgiveness for the man at fault. This recording is a student project of the SALT Institute in Portland, Maine. Aired by National Public Radio on November 17, 2008, and now available at npr.org.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Radio documentary piece on the violent invasion of the Waterville, Maine, convent of the Servants of the Blessed Sacrament in 1996. The death of two nuns, the recollections of surviving sisters, and how their community has chosen to live and express its forgiveness for the man at fault. This recording is a student project of the SALT Institute in Portland, Maine. Aired by National Public Radio on November 17, 2008, and now available at npr.org.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t xml:space="preserve">Alpert, Jessica </t>
         </is>
       </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>2008 Spring</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Audio Recording</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2008, Waterville, Maine</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
@@ -4836,92 +4711,89 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr">
+      <c r="X43" t="inlineStr">
         <is>
           <t>00:07:43</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr">
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr">
         <is>
           <t>Waterville, Maine</t>
         </is>
       </c>
+      <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="inlineStr"/>
       <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  http://www.npr.org/templates/story/story.php?storyId=97092716</t>
-        </is>
-      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.salt.edu/studentwork/radio/?studentwork_id=4"&gt; &lt;br/&gt;&lt;br/&gt; &lt;/a&gt;&lt;a href="http://www.npr.org/templates/story/story.php?storyId=97092716"&gt;http://www.npr.org/templates/story/story.php?storyId=97092716&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
       <c r="AI43" t="inlineStr"/>
       <c r="AJ43" t="inlineStr"/>
       <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>Community: Customs and Social Life;Death and Disaster;Family;Religion;Rome IT;Violence;Waterville ME</t>
+        </is>
+      </c>
       <c r="AM43" t="inlineStr">
-        <is>
-          <t>Community: Customs and Social Life;Death and Disaster;Family;Religion;Rome IT;Violence;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN43" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>1537</v>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>FAROG Group : Québékiss discussion</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FAROG Group : Québékiss discussion</t>
+          <t>Recording of a 1973 FAROG (Franco-American Resource Opportunity Group) student meeting at the University of Maine at Orono. Beginning in the early 1970s, the group would meet on a regular basis and, among other things, involve themselves in exploratory discussion. This particular meeting begins with a reflection on the song entitled "Québékiss," and turns into an exploration of identity, of college, and of ideas about "freedom."</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Recording of a 1973 FAROG (Franco-American Resource Opportunity Group) student meeting at the University of Maine at Orono. Beginning in the early 1970s, the group would meet on a regular basis and, among other things, involve themselves in exploratory discussion. This particular meeting begins with a reflection on the song entitled "Québékiss," and turns into an exploration of identity, of college, and of ideas about "freedom."</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t xml:space="preserve">Labbé, Yvon A. </t>
         </is>
       </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="n">
+      <c r="F44" t="n">
         <v>1973</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Bolduc, Claire;Colin, Cécile;Dodge, Elizabeth Ardoin;Michaud, Maxine;Roberge, Céleste ;Violette, Mark</t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bolduc, Claire;Colin, Cécile;Dodge, Elizabeth Ardoin;Michaud, Maxine;Roberge, Céleste ;Violette, Mark</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
           <t>English, with some français</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Video Recording</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
         <is>
           <t>1973, Orono, Maine</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -4930,117 +4802,114 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr">
+      <c r="X44" t="inlineStr">
         <is>
           <t>ca. 60 mins.</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr">
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
         <is>
           <t>Orono, Maine</t>
         </is>
       </c>
+      <c r="AA44" t="inlineStr"/>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>http://www.francoamerican.org/home.php</t>
-        </is>
-      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.francoamerican.org/home.php"&gt;http://www.francoamerican.org/home.php&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr"/>
       <c r="AI44" t="inlineStr"/>
       <c r="AJ44" t="inlineStr"/>
       <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>Education;Ethnicity and Collective Identity;Language and Linguistics;Music;Orono ME</t>
+        </is>
+      </c>
       <c r="AM44" t="inlineStr">
-        <is>
-          <t>Education;Ethnicity and Collective Identity;Language and Linguistics;Music;Orono ME</t>
-        </is>
-      </c>
-      <c r="AN44" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>1540</v>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Reflets et lumieère : Porte ouverte sur la communauté de Old Town</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Reflets et lumieère : Porte ouverte sur la communauté de Old Town</t>
+          <t>Second episode in a public broadcasting documentary series on Franco Americans in Maine at the beginning of the 1980s. Composed of two major segments. In the first segment, a video essay entitled "Bells and Whistles," Eugene Paradis guides viewers through the history of Old Town, Maine, up to the present. The second segment is a closer look into the French Island community of Old Town. Both segments are introduced in French with English subtitles, while the segments themselves are mostly in English with portions of subtitled French conversation. The program is followed by a brief reaction by French-speaking puppets, "Patate" et "Pitune."</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Second episode in a public broadcasting documentary series on Franco Americans in Maine at the beginning of the 1980s. Composed of two major segments. In the first segment, a video essay entitled "Bells and Whistles," Eugene Paradis guides viewers through the history of Old Town, Maine, up to the present. The second segment is a closer look into the French Island community of Old Town. Both segments are introduced in French with English subtitles, while the segments themselves are mostly in English with portions of subtitled French conversation. The program is followed by a brief reaction by French-speaking puppets, "Patate" et "Pitune."</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>Greenman, John</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="n">
+      <c r="F45" t="n">
         <v>1981</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sorg, Marcella ;Labbé, Yvon ;Pelletier, Raymond ;Paradis, Eugene ;Yvon, Bernard ;Gallagher, Jim ;Bolduc, Claire </t>
+        </is>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sorg, Marcella ;Labbé, Yvon ;Pelletier, Raymond ;Paradis, Eugene ;Yvon, Bernard ;Gallagher, Jim ;Bolduc, Claire </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>TV Broadcast</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
         <is>
           <t>1980s, Old Town, Maine</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Greenman, John </t>
+        </is>
+      </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Greenman, John </t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
           <t>Duplessis, Ludger (co-host);Duplessis, Steffan (co-host)</t>
         </is>
       </c>
-      <c r="T45" t="n">
+      <c r="S45" t="n">
         <v>2</v>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>English and français</t>
+        </is>
+      </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>English and français</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
           <t>Maine Public Broadcasting Network (MPBN)</t>
         </is>
       </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -5055,81 +4924,78 @@
       <c r="AH45" t="inlineStr"/>
       <c r="AI45" t="inlineStr"/>
       <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/a9859ff2f34f3bcc9ba8d0a4addec64f.jpg</t>
+        </is>
+      </c>
       <c r="AL45" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/a9859ff2f34f3bcc9ba8d0a4addec64f.jpg</t>
+          <t>Acculturation and Assimilation;Bradley ME;Community: Customs and Social Life;Education;Family;Forestry;French Island ME;Labor History;Language and Linguistics;Milford ME;Mills and Mill Work;Native Americans;Old Town ME;Religion;Social History;Youth</t>
         </is>
       </c>
       <c r="AM45" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Bradley ME;Community: Customs and Social Life;Education;Family;Forestry;French Island ME;Labor History;Language and Linguistics;Milford ME;Mills and Mill Work;Native Americans;Old Town ME;Religion;Social History;Youth</t>
-        </is>
-      </c>
-      <c r="AN45" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>1541</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Ron Currie, Jr. discusses Everything Matters!</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ron Currie, Jr. discusses Everything Matters!</t>
+          <t>Waterville, Maine, writer, Ron Currie, Jr., discusses his book "Everything Matters!," his life, and his writing, and takes questions from Duke University's class of 2014. Currie's novel was chosen to be read and discussed by the entire first-year class at Duke.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Waterville, Maine, writer, Ron Currie, Jr., discusses his book "Everything Matters!," his life, and his writing, and takes questions from Duke University's class of 2014. Currie's novel was chosen to be read and discussed by the entire first-year class at Duke.</t>
+          <t>Duke Alumni Association</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>Watch: VIDEO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2010 August 31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Duke Alumni Association</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Watch: VIDEO</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>2010 August 31</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Duke Alumni Association</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Streaming Video </t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Streaming Video </t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
           <t>Video Recording</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2010; Durham, North Carolina</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
@@ -5138,189 +5004,183 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>00:51:07</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr">
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr">
         <is>
           <t>Durham, North Carolina</t>
         </is>
       </c>
+      <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="inlineStr"/>
       <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>http://www.youtube.com/watch?v=R_461JCPEus&amp;feature=youtube_gdata_player</t>
-        </is>
-      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.youtube.com/watch?v=R_461JCPEus&amp;amp;feature=youtube_gdata_player"&gt;http://www.youtube.com/watch?v=R_461JCPEus&amp;amp;feature=youtube_gdata_player&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr"/>
       <c r="AH46" t="inlineStr"/>
       <c r="AI46" t="inlineStr"/>
       <c r="AJ46" t="inlineStr"/>
       <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>Education;Fiction and Literature;Maine;North Carolina;Personal History: Biography and Oral History;Waterville ME</t>
+        </is>
+      </c>
       <c r="AM46" t="inlineStr">
-        <is>
-          <t>Education;Fiction and Literature;Maine;North Carolina;Personal History: Biography and Oral History;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN46" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>1547</v>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Speaking in Tongues</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Speaking in Tongues</t>
+          <t>Documentary film on multilingual and multicultural education in the United States. The personal, social, and political implications of teaching in languages other than English, and the complex realities of immigrant families' hopes for their children's education. Set in California, in the context of various states considering "English only" legislation. Considers the developmental benefits of multilingual youth education. From PatchWork Productions: "In a time where 31 states have passed English Only initiatives, one urban school district is exploring the provocative notion that speaking a foreign language can be a national asset. We follow four diverse students and their families as they encounter the challenges and delights of becoming fluent in two languages. As we witness their journey, we see how speaking more than one language changes them, their families, their communities, and maybe even the world."</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Documentary film on multilingual and multicultural education in the United States. The personal, social, and political implications of teaching in languages other than English, and the complex realities of immigrant families' hopes for their children's education. Set in California, in the context of various states considering "English only" legislation. Considers the developmental benefits of multilingual youth education. From PatchWork Productions: "In a time where 31 states have passed English Only initiatives, one urban school district is exploring the provocative notion that speaking a foreign language can be a national asset. We follow four diverse students and their families as they encounter the challenges and delights of becoming fluent in two languages. As we witness their journey, we see how speaking more than one language changes them, their families, their communities, and maybe even the world."</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>Jarmel, Marcia;Schneider, Ken</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="n">
+      <c r="F47" t="n">
         <v>2010</v>
       </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
         <is>
           <t>English (Spanish and Chinese audio and subtitles)</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Film</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/435619912"&gt;435619912&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/435619912"&gt;435619912&lt;/a&gt;</t>
+          <t>2010, California, United States</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2010, California, United States</t>
+          <t>Documentary</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Documentary</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
           <t>PatchWorks Productions</t>
         </is>
       </c>
+      <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>00:57:00</t>
         </is>
       </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="inlineStr"/>
       <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>http://speakingintonguesfilm.info (see film trailer here)</t>
-        </is>
-      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://speakingintonguesfilm.info"&gt;http://speakingintonguesfilm.info&lt;/a&gt; (see film trailer here)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr"/>
       <c r="AH47" t="inlineStr"/>
       <c r="AI47" t="inlineStr"/>
       <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/8b0b3848eeaf574974d2107aa327a608.JPG</t>
+        </is>
+      </c>
       <c r="AL47" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/8b0b3848eeaf574974d2107aa327a608.JPG</t>
+          <t>California;Demography;Education;Film and Television;Government and Politics;Language and Linguistics;San Francisco CA;United States</t>
         </is>
       </c>
       <c r="AM47" t="inlineStr">
-        <is>
-          <t>California;Demography;Education;Film and Television;Government and Politics;Language and Linguistics;San Francisco CA;United States</t>
-        </is>
-      </c>
-      <c r="AN47" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>1609</v>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Chantons--Let's Sing [in French &amp; English] : Traditional French Songs</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chantons--Let's Sing [in French &amp; English] : Traditional French Songs</t>
+          <t>Audio recording of 14 French songs performed in both French and English and accompanied by fiddle. Partnered with a song book containing sheet music, lyrics, lyric translations, and storied introductions to each song. Book concludes with some suggestions for incorporating its music into school lessons, in particular a curriculum designed for use under the provisions of the Maine Learning Results.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Audio recording of 14 French songs performed in both French and English and accompanied by fiddle. Partnered with a song book containing sheet music, lyrics, lyric translations, and storied introductions to each song. Book concludes with some suggestions for incorporating its music into school lessons, in particular a curriculum designed for use under the provisions of the Maine Learning Results.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>Parent, Michael (vocals);Boardman, Greg (fiddle)</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
+      <c r="F48" t="n">
         <v>1999</v>
       </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
         <is>
           <t>Français and English</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Audio Recording</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Audio Recording</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
           <t>&lt;a href="http://www.worldcat.org/oclc/671673224"&gt;671673224&lt;/a&gt;</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
@@ -5328,549 +5188,534 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr">
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr">
         <is>
           <t>00:34:48</t>
         </is>
       </c>
-      <c r="Z48" t="n">
+      <c r="Y48" t="n">
         <v>16</v>
       </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Lewiston, Maine</t>
+        </is>
+      </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Lewiston, Maine</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
           <t>L/A Arts</t>
         </is>
       </c>
+      <c r="AB48" t="inlineStr"/>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>http://www.michaelparentstorytelling.com/michaelparent_audio.html</t>
-        </is>
-      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.michaelparentstorytelling.com/michaelparent_audio.html"&gt;http://www.michaelparentstorytelling.com/michaelparent_audio.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr"/>
       <c r="AH48" t="inlineStr"/>
       <c r="AI48" t="inlineStr"/>
       <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/ba19992b140edf28a506c80638c03654.jpg</t>
+        </is>
+      </c>
       <c r="AL48" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/ba19992b140edf28a506c80638c03654.jpg</t>
+          <t>Acadians;Community: Customs and Social Life;Education;Language and Linguistics;Lewiston ME;Music</t>
         </is>
       </c>
       <c r="AM48" t="inlineStr">
-        <is>
-          <t>Acadians;Community: Customs and Social Life;Education;Language and Linguistics;Lewiston ME;Music</t>
-        </is>
-      </c>
-      <c r="AN48" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>1771</v>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Chants Populaires des Franco-Américains</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chants Populaires des Franco-Américains</t>
+          <t>Un recueil des chansons langue française (de France, Canada, et les Etats-Unis) publié par un société fraternelle franco-américain pour les Franco-Américains de la Nouvelle-Angleterre. Un hommage à  la musique traditionnelle française en Amérique et une tentative de le préserver dans la musique et les paroles ensemble dans une partition musicale.  Formée de huit tomes des "Chants populaires des Franco-Américains" qui ont été publiés plus tôt et dans des éditions séparées.  Contient les chansons suivantes:  A la claire fontaine (Quatuor) Barcarolle (Choeur) Bonsoir (Choeur de voix mixtes) Brigadier (Solo et choeur) Cantique à  St-Jean-Baptiste (Duo et choeur) Célébrons le Seigneur (Solo) C'est un oiseau qui vient de France (Solo) Chant national (Solo et choeur) Chant national Acadien (Choeur) Chantons le peuple Canadien (Choeur) Chants Canadiens (Quatuor pour voix egales) Choeur des soldats (Faust)(Quatuor) Comme nos pières (Solo et quatuor) Désillusion (Melodie) Dieu bénit celui qui donne (Solo) Dieu sauve la France! (Solo et choeur) Dors, petite soeur (Berceuse) Fédération (Choeur Hymne à  St-Jean-Baptiste (Choeur) Jeanne d'Arc (Solo et choeur) La Brabanconne (Solo) La charité (Romance) La foi (Choeur pour 3 voix de femmes) La Marseillaise (Choeur pour voix mixtes) La mière Michel (Pot-pourri) La patrie des birondelles (Duo) La plainte du mousse (Solo) La priière dans le bois (Duo) La sérénade des anges (Choeur pour 3 voix de femmes) Le crédo du paysan (Solo) Le crucifix (Chant religieux) Le drapeau de Carillon (Solo et quatuor) Le gondolier (Choeur) Le Noà«l du laboureur (Solo) Le petit doigt de la maman (Chansonnette pour les petits enfants) Le petit mousse noir (Solo et quatuor) Le régiment de Sambre et Meuse (Solo) Le rosier de mai (Solo et choeur) L'envers du ciel (Solo) Les anges du foyer (Solo) Les cloches du hameau (Solo et choeur) Les feuilles mortes (Romance) Les montagnards (Solo et choeur) Les rameaux (Romance) Les refrains du hameau (Quatuor pour voix d'hommes) Les vingt sous du bon Dieu (Romance) Ma Normandie (Romance) Marlborough (Choeur) Minuit, Nocturne, Sérénade sans accompagnement (Solo et quatuor) Mon âme à  Dieu, mon coeur à  toi (Solo et choeur) Mon léger bateau (Solo) O Canada (Choeur) O Canada (Quatuor pour voix d'hommes) O Canada, mon pays, mes amours (Solo) Pars (Romance) Quatre canards (Solo et choeur) Restons Français (Solo et choeur) Salut à  la France (Aria de concert) Silvio Pellico (Romance) Souvenirs de la patrie (Choeur pour quatre voix d'hommes) Souvenirs du jeune âge (Romance) The Star Spangled Banner (Choeur) Ton souvenir est toujours là  (Romance) Tyrolienne (Choeur) Un Canadien errant (Pot-pourri pour voix d'hommes) Vive la Canadienne (Choeur)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Un recueil des chansons langue française (de France, Canada, et les Etats-Unis) publié par un société fraternelle franco-américain pour les Franco-Américains de la Nouvelle-Angleterre. Un hommage à  la musique traditionnelle française en Amérique et une tentative de le préserver dans la musique et les paroles ensemble dans une partition musicale.  Formée de huit tomes des "Chants populaires des Franco-Américains" qui ont été publiés plus tôt et dans des éditions séparées.  Contient les chansons suivantes:  A la claire fontaine (Quatuor) Barcarolle (Choeur) Bonsoir (Choeur de voix mixtes) Brigadier (Solo et choeur) Cantique à  St-Jean-Baptiste (Duo et choeur) Célébrons le Seigneur (Solo) C'est un oiseau qui vient de France (Solo) Chant national (Solo et choeur) Chant national Acadien (Choeur) Chantons le peuple Canadien (Choeur) Chants Canadiens (Quatuor pour voix egales) Choeur des soldats (Faust)(Quatuor) Comme nos pières (Solo et quatuor) Désillusion (Melodie) Dieu bénit celui qui donne (Solo) Dieu sauve la France! (Solo et choeur) Dors, petite soeur (Berceuse) Fédération (Choeur Hymne à  St-Jean-Baptiste (Choeur) Jeanne d'Arc (Solo et choeur) La Brabanconne (Solo) La charité (Romance) La foi (Choeur pour 3 voix de femmes) La Marseillaise (Choeur pour voix mixtes) La mière Michel (Pot-pourri) La patrie des birondelles (Duo) La plainte du mousse (Solo) La priière dans le bois (Duo) La sérénade des anges (Choeur pour 3 voix de femmes) Le crédo du paysan (Solo) Le crucifix (Chant religieux) Le drapeau de Carillon (Solo et quatuor) Le gondolier (Choeur) Le Noà«l du laboureur (Solo) Le petit doigt de la maman (Chansonnette pour les petits enfants) Le petit mousse noir (Solo et quatuor) Le régiment de Sambre et Meuse (Solo) Le rosier de mai (Solo et choeur) L'envers du ciel (Solo) Les anges du foyer (Solo) Les cloches du hameau (Solo et choeur) Les feuilles mortes (Romance) Les montagnards (Solo et choeur) Les rameaux (Romance) Les refrains du hameau (Quatuor pour voix d'hommes) Les vingt sous du bon Dieu (Romance) Ma Normandie (Romance) Marlborough (Choeur) Minuit, Nocturne, Sérénade sans accompagnement (Solo et quatuor) Mon âme à  Dieu, mon coeur à  toi (Solo et choeur) Mon léger bateau (Solo) O Canada (Choeur) O Canada (Quatuor pour voix d'hommes) O Canada, mon pays, mes amours (Solo) Pars (Romance) Quatre canards (Solo et choeur) Restons Français (Solo et choeur) Salut à  la France (Aria de concert) Silvio Pellico (Romance) Souvenirs de la patrie (Choeur pour quatre voix d'hommes) Souvenirs du jeune âge (Romance) The Star Spangled Banner (Choeur) Ton souvenir est toujours là  (Romance) Tyrolienne (Choeur) Un Canadien errant (Pot-pourri pour voix d'hommes) Vive la Canadienne (Choeur)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>Viau, Eusièbe (rédacteur);Philie, J. Ernest (rédacteur)</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>L'Union Saint-Jean-Baptiste d'Amérique</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="F49" t="n">
         <v>1929</v>
       </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/59732376"&gt;59732376&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/29086410"&gt;29086410&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/221940175"&gt;221940175&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/59732376"&gt;59732376&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/29086410"&gt;29086410&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/221940175"&gt;221940175&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
           <t>1929; Nouvelle-Angleterre</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="n">
+      <c r="Y49" t="n">
         <v>244</v>
       </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Woonsocket, Rhode Island</t>
+        </is>
+      </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Woonsocket, Rhode Island</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
           <t>L'Union Saint-Jean-Baptiste d'Amérique</t>
         </is>
       </c>
+      <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>Chants Populaires... sur Google Books</t>
-        </is>
-      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books?id=B74TNAAACAAJ"&gt;Chants Populaires...&lt;/a&gt; sur Google Books&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr"/>
       <c r="AH49" t="inlineStr"/>
       <c r="AI49" t="inlineStr"/>
       <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/1c7dbeb7139b03c75aeb83d2ebbe4ba4.jpg</t>
+        </is>
+      </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/1c7dbeb7139b03c75aeb83d2ebbe4ba4.jpg</t>
+          <t>Canada;Community: Customs and Social Life;Ethnicity and Collective Identity;Folklore;France;Music;New England;Québec;Springfield MA;United States;Woonsocket RI</t>
         </is>
       </c>
       <c r="AM49" t="inlineStr">
-        <is>
-          <t>Canada;Community: Customs and Social Life;Ethnicity and Collective Identity;Folklore;France;Music;New England;Québec;Springfield MA;United States;Woonsocket RI</t>
-        </is>
-      </c>
-      <c r="AN49" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>1788</v>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Franco-American Writers</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Franco-American Writers</t>
+          <t>A WERU FM community radio broadcast of readings by two Maine writers, Rhea Côté Robbins and Trudy Chambers Price. Côté Robbins, who introduces her readings with a short talk on violence at home and in the workplace, shares from a work-in-progress entitled, "down the Plains." Chambers Price shares two chapters from her memoir, "The Cows Are Out!: Two Decades on a Maine Dairy Farm" (chapter 12, "A Real Farmer's Tan," and chapter 10, "The Cows Are Out!"). Readings are followed by a discussion with both writers about their lives, their work, and the stories that they and other Franco American women hold.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A WERU FM community radio broadcast of readings by two Maine writers, Rhea Côté Robbins and Trudy Chambers Price. Côté Robbins, who introduces her readings with a short talk on violence at home and in the workplace, shares from a work-in-progress entitled, "down the Plains." Chambers Price shares two chapters from her memoir, "The Cows Are Out!: Two Decades on a Maine Dairy Farm" (chapter 12, "A Real Farmer's Tan," and chapter 10, "The Cows Are Out!"). Readings are followed by a discussion with both writers about their lives, their work, and the stories that they and other Franco American women hold.</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>Clemons, Joan</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2010 August 12</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2010 August 12</t>
+          <t>Robbins, Rhea Côté;Price, Trudy Chambers</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Robbins, Rhea Côté;Price, Trudy Chambers</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Audio Recording</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2010, Maine</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr">
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
         <is>
           <t>MP3 (streaming; download)</t>
         </is>
       </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr">
         <is>
           <t>00:59:13</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr">
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr">
         <is>
           <t>Blue Hill, Maine</t>
         </is>
       </c>
+      <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>http://archives.weru.org/writers-forum/writers-forum-81210 (program available here to stream or download)</t>
-        </is>
-      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://archives.weru.org/writers-forum/writers-forum-81210"&gt;http://archives.weru.org/writers-forum/writers-forum-81210&lt;/a&gt; (program available here to stream or download)&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr"/>
       <c r="AH50" t="inlineStr"/>
       <c r="AI50" t="inlineStr"/>
       <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/9441b0d3932f6c62eed6511bfac7df23.jpg</t>
+        </is>
+      </c>
       <c r="AL50" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/9441b0d3932f6c62eed6511bfac7df23.jpg</t>
+          <t>Caribou ME;Detroit ME;Dexter ME;Family;Farming and Agriculture;Fiction and Literature;Gender and Sexuality;Interview;Maine;Personal History: Biography and Oral History;Poetry;Radio;Violence;Wallagrass ME;Waterville ME</t>
         </is>
       </c>
       <c r="AM50" t="inlineStr">
-        <is>
-          <t>Caribou ME;Detroit ME;Dexter ME;Family;Farming and Agriculture;Fiction and Literature;Gender and Sexuality;Interview;Maine;Personal History: Biography and Oral History;Poetry;Radio;Violence;Wallagrass ME;Waterville ME</t>
-        </is>
-      </c>
-      <c r="AN50" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>1818</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Deep Woods and River Roads : Voices from the Kennebec-Chaudiière Heritage Corridor</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Deep Woods and River Roads : Voices from the Kennebec-Chaudiière Heritage Corridor</t>
+          <t>Subtitled, "An Audio Tour of Route 201 in Maine." A production of short interviews and other recordings that capture the people from each major section of Maine's historic route running north to south along the Kennebec River. Designed to accompany and advertise tourism along the Kennebec-Chaudiière Heritage Corridor. Narrated by National Public Radio's Nick Spitzer. Includes segments with artists, teachers, performers, cooks, loggers, fishermen, builders, painters, and more. Writers Wesley McNair and Richard Russo read from their work. Some history of the Penobscot Nation, Benedict Arnold's Expedition, the French Canadian immigration, Bath Iron Works, and other persons, places, and events important to the region.  Audio begins geographically in Jackman, Maine, and ends at Popham Beach, Maine. CD is accompanied by a descriptive guide with regional art and summaries of each covered geographic section along the Kennebec River. Contributors listed in order of appearance. Tracks play in the following order: Introduction Maple sugaring [Somerset County] Jackman in Winter [Jackman, ME] The Old Canada Road [Pleasant Ridge Plantation and Bingham, ME] Logging [Skowhegan, ME] White water rafting [Somerset County] Fiddleheading [West Forks, ME] Birch bark canoe making [Solon, ME] Fly fishing [Oakland, ME] South Solon Meeting House [Skowhegan, ME] Grange Hall [Norridgewock, ME] Poet, Wesley McNair [Mercer,ME] Franco-Americans in Waterville [Waterville, ME] Mills [Waterville, ME] Benedict Arnold [Pittston, ME] Merrymeeting Bay [near Bath, ME] Farming [Dresden, ME] Ship building [Bath and Phippsburg,ME] Lobstering [Bath, ME] Popham [Popham, ME] Outtro</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Subtitled, "An Audio Tour of Route 201 in Maine." A production of short interviews and other recordings that capture the people from each major section of Maine's historic route running north to south along the Kennebec River. Designed to accompany and advertise tourism along the Kennebec-Chaudiière Heritage Corridor. Narrated by National Public Radio's Nick Spitzer. Includes segments with artists, teachers, performers, cooks, loggers, fishermen, builders, painters, and more. Writers Wesley McNair and Richard Russo read from their work. Some history of the Penobscot Nation, Benedict Arnold's Expedition, the French Canadian immigration, Bath Iron Works, and other persons, places, and events important to the region.  Audio begins geographically in Jackman, Maine, and ends at Popham Beach, Maine. CD is accompanied by a descriptive guide with regional art and summaries of each covered geographic section along the Kennebec River. Contributors listed in order of appearance. Tracks play in the following order: Introduction Maple sugaring [Somerset County] Jackman in Winter [Jackman, ME] The Old Canada Road [Pleasant Ridge Plantation and Bingham, ME] Logging [Skowhegan, ME] White water rafting [Somerset County] Fiddleheading [West Forks, ME] Birch bark canoe making [Solon, ME] Fly fishing [Oakland, ME] South Solon Meeting House [Skowhegan, ME] Grange Hall [Norridgewock, ME] Poet, Wesley McNair [Mercer,ME] Franco-Americans in Waterville [Waterville, ME] Mills [Waterville, ME] Benedict Arnold [Pittston, ME] Merrymeeting Bay [near Bath, ME] Farming [Dresden, ME] Ship building [Bath and Phippsburg,ME] Lobstering [Bath, ME] Popham [Popham, ME] Outtro</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>Levin, Abbe (director);Mundell, Kathleen (folklorist);Spitzer, Nicholas (narrator)</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
+      <c r="F51" t="n">
         <v>2006</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Rodrigue, Claude;Paradise, Sara;LeMaire, Allen;Blood, Hal;Fountain, Barbie;Fountain, Joe;Pratt, George;Francoeur, Ray;Locke, Keldon;Hockmeyer, Suzie;Abraham, Harry;Dana, Barry;Meader, Abbott;Shahn, Abbey;Bozhkov, Daniel;Roderick, Susan;Donovan, Bob;Poudrier, Bethany;McNair, Wesley;Hallee, Roger;Marrache, Lisa;Robbins, Rhea Coêté;Larock, Cindy;Russo, Richard;Desjardin, Tom;Burroughs, Franklin, Jr.;Popp, Dave;Stevens, Rob;Kemberling, Ulricka;Tarbox, Jack;Wright, Amos;Stevens, Jane</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rodrigue, Claude;Paradise, Sara;LeMaire, Allen;Blood, Hal;Fountain, Barbie;Fountain, Joe;Pratt, George;Francoeur, Ray;Locke, Keldon;Hockmeyer, Suzie;Abraham, Harry;Dana, Barry;Meader, Abbott;Shahn, Abbey;Bozhkov, Daniel;Roderick, Susan;Donovan, Bob;Poudrier, Bethany;McNair, Wesley;Hallee, Roger;Marrache, Lisa;Robbins, Rhea Coêté;Larock, Cindy;Russo, Richard;Desjardin, Tom;Burroughs, Franklin, Jr.;Popp, Dave;Stevens, Rob;Kemberling, Ulricka;Tarbox, Jack;Wright, Amos;Stevens, Jane</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
           <t>English</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Audio Recording</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Audio Recording</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/76810555"&gt;76810555&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/76810555"&gt;76810555&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
           <t>2006, Kennebec River Valley, Maine</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Compact disc</t>
+        </is>
+      </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>Compact disc</t>
+          <t>Cultural Resources, Inc.</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Cultural Resources, Inc.</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
           <t>01:19:00</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr">
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr">
         <is>
           <t>Rockport, Maine</t>
         </is>
       </c>
+      <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="inlineStr"/>
       <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>http://www.midmainechamber.com/tourism/deepwoods.htm;http://www.cultural-resources.org/publications_n.html</t>
-        </is>
-      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.midmainechamber.com/tourism/deepwoods.htm"&gt;http://www.midmainechamber.com/tourism/deepwoods.htm&lt;/a&gt;&lt;/div&gt;;&lt;div class="element-text"&gt;&lt;a href="http://www.cultural-resources.org/publications_n.html"&gt;http://www.cultural-resources.org/publications_n.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr"/>
       <c r="AH51" t="inlineStr"/>
       <c r="AI51" t="inlineStr"/>
       <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/9ffd8db258b09b645ab09524223f36e0.jpg</t>
+        </is>
+      </c>
       <c r="AL51" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/9ffd8db258b09b645ab09524223f36e0.jpg</t>
+          <t>Acculturation and Assimilation;Art and Architecture;Augusta ME;Bath ME;Business and Economics;Caratunk ME;Community: Customs and Social Life;Dead River Valley ME;Emigration and Immigration;Ethnicity and Collective Identity;Farming and Agriculture;Fishing;Folklore;Food;Forestry;Gardiner ME;Hallowell ME;Hunting;Jackman ME;Kennebec River Valley;Madison ME;Maine;Mercer ME;Mills and Mill Work;Moosehead Lake Region;Moxie ME;Native Americans;Norridgewock ME;Personal History: Biography and Oral History;Phippsburg ME;Pittston ME;Poetry;Popham ME;Québec;Richmond ME;Seguin Island ME;Skowhegan ME;Solon ME;Somerset County ME;Sports and Leisure;Travel and Movement;Waterville ME;West Forks ME</t>
         </is>
       </c>
       <c r="AM51" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Art and Architecture;Augusta ME;Bath ME;Business and Economics;Caratunk ME;Community: Customs and Social Life;Dead River Valley ME;Emigration and Immigration;Ethnicity and Collective Identity;Farming and Agriculture;Fishing;Folklore;Food;Forestry;Gardiner ME;Hallowell ME;Hunting;Jackman ME;Kennebec River Valley;Madison ME;Maine;Mercer ME;Mills and Mill Work;Moosehead Lake Region;Moxie ME;Native Americans;Norridgewock ME;Personal History: Biography and Oral History;Phippsburg ME;Pittston ME;Poetry;Popham ME;Québec;Richmond ME;Seguin Island ME;Skowhegan ME;Solon ME;Somerset County ME;Sports and Leisure;Travel and Movement;Waterville ME;West Forks ME</t>
-        </is>
-      </c>
-      <c r="AN51" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>1846</v>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>La Bonne Aventure</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>La Bonne Aventure</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>French-English bilingual educational television series for children. Designed "to expose the Franco American child to simple elements of his/her culture" (MPBN). Created in 1974 by Project FACTS (Franco-American Children's Television Series); produced by Maine Public Broadcasting Network and the University of Maine. Includes puppets, animation, and live-action video footage. Accompanied by Teacher Guides with thematic overview and synopsis of each episode, comments on cultural elements in each episode, suggested additional resources materials for teachers, and suggested activities for students. Description of episodes (20): Episode 1: Nouveaux amis / New Friends Introduction to series character children - Lise, Claude, Tit-Guy, Julie. The magical arrival of Dorik and Dondaine, two lutins of Franco American folklore. Features video footage of Augusta, Biddeford, Fort Kent, Lewiston, Madawaska, and Van Buren, Maine. Episode 2: Chez-nous / Our Place Finding themselves at the center of the children's attention, Dorik and Dondaine search for a place to be alone. Episode 3: Le rire / Laughter Dorik and Dondaine contemplate cultural difference as they encounter different perceptions of their English accent. Episode 4: La bonne aventure / The Good Adventure With the help of her friends, Julie confronts her fear of meeting new people and ventures out to create a film. Episode includes French Canadian fables. Features video footage of Augusta, Biddeford, Lewiston, the St. John Valley, and Waterville, Maine. Episode 5: Le travail / Work Lise and Tit-Guy help Dorik take pride and find value in his art work. Video footage and montage of different forms of work. Episode 6: L'horloge / The Clock The discovery of a giftbox with a clock set for 7:00PM opens up a discussion about "le Bonhomme Sept-heures" of Franco American folklore. Characters work to confront their fears. Episode 7: Le bazaar / The Bazaar Claude struggles to finish a series of collages he is supposed to bring to the next day's church bazaar. Characters learn about some of the differences between working independently and asking others for help._x000D_
 Episode 8: Le réveillon / Christmas Eve CelebrationThe children celebrate Christmas Eve together with their families, but Dorik and Dondaine are missing. Includes a discussion of Franco American foods. Episode 9: La legende / The Legend A trip to the shipyard with Claude, Lise, Dorik, and Dondaine turns adventurous when the four become trapped in an old ship. In the hopes of calming them, Dorik shares a legend with the children. Features video footage from Bath Iron Works in Bath, Maine. Episode 10: Les explorateurs / The Explorers Claude and Lise venture into the attic to explore through a trunk filled with their pépière's old belongings. After the children uncover stories from their Québec heritage, Tit-Guy explains his mémière's Acadian roots.  Features video footage of Rhode Island Governor, Philip Noel, and a photo montage of St.-Jean-Baptiste Day celebrations.  Episode 11: La déportation / The Deportation Playing hide-and-seek after talking about her Acadian heritage with Tit-Guy, Julie's cardboard box hiding spot is magically moved out of the house. Julie and Dondaine search for a way home. Information on the Acadian Deportation. Features video footage of Augusta, Biddeford, Lewiston, the St. John Valley, and Waterville, Maine, as well as footage from Manchester and Nashua, New Hampshire; Lowell, Fall River, and western Massachusetts; and Woonsocket, Rhode Island. Episode 12: Achale moé  pas / A Problem of Feelings As Julie tries to draw a bowl of fruit, she is interrupted and upset in multiple ways by her friends. How she deals with anger and impatience. Episode 13: La bêtise / The Mistake Before a trip to the sugar shack, Lise accidentally unravels a scarf knitted for her by her mémière. Features video footage of "la tire sur la neige," or taffy on the snow, at a sugar shack during the maple sugar harvest. Episode 14: Le prix / The Prize Sibling tensions arise as Claude resents Lise's spelling bee victory trophy and the attention she receives. Features video footage of a community bean supper. Episode 15: La quête / The Quest After Julie falls asleep reading about French-speaking people in the history of America, the time-machine she had been tinkering disappears Dorik to parts unknown. Julie travels through American history - to colonial Boston, Philadelphia, and elsewhere - on a search for her friend. Features Robert de la Salle, George Washington, Benjamin Franklin, and other figures in American history.  Episode 16: L'annonce / The Commercial Tit-Guy recites a poem he has prepared for a television station. His friends offer advice and critique his style in various ways, and he must choose the best way to perform. Features video footage from Franco American communities outside of Maine. Episode 17: Les plans / The Plans After Lise is informed she cannot go to the zoo, that her parents have other plans for her, she imagines running away from home. Discussion of Franco American fairs. Features video footage of Benson's Animal Farm in Hudson, New Hampshire. Episode 18: L'invention / The Invention As Julie tinkers with her malfunctioning new invention, a thought-reflection-projector box, she is confronted with gender stereotypes from her friends.  Features video footage of a community beano game and the mayor of Lewiston, Maine. Episode 19: La trouvaille / The Lucky Find Tit-Guy finds a precious object and claims it his own as Dondaine realizes her rose bénite, the same object, is missing. Episode 20: Au Revoir is Not Goodbye Claude, Lise, Tit-Guy, and Julie reminisce on their happy times with Dorik and Dondaine. The children prepare a party before les lutins must depart.</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Roy, Suzanne R.</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Roy, Suzanne R.</t>
+          <t>Watch: ALL EPISODES</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Watch: ALL EPISODES</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>Maine Public Broadcasting Network</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="F52" t="n">
         <v>1974</v>
       </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
         <is>
           <t>English and français</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Moving Image</t>
+        </is>
+      </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Moving Image</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/3404725"&gt;3404725&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/3404725"&gt;3404725&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
           <t>1974; Maine</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>Pepin, Nelson A.</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" s="2" t="n">
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" s="2" t="n">
         <v>45677</v>
       </c>
+      <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr">
+      <c r="X52" t="inlineStr">
         <is>
           <t>ca. 14:35</t>
         </is>
       </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>http://francolib.francoamerican.org/galleries/aventure</t>
-        </is>
-      </c>
+      <c r="AF52" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://francolib.francoamerican.org/galleries/aventure"&gt;http://francolib.francoamerican.org/galleries/aventure&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="inlineStr"/>
       <c r="AI52" t="inlineStr"/>
       <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/258c26c02449cb06b231378fdce1c082.jpg</t>
+        </is>
+      </c>
       <c r="AL52" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/258c26c02449cb06b231378fdce1c082.jpg</t>
+          <t>Acadians;Augusta ME;Biddeford ME;Boston MA;Community: Customs and Social Life;Education;Fall River MA;Family;Film and Television;Folklore;Language and Linguistics;Lewiston ME;Lowell MA;Madawaska ME;Maine;Manchester NH;Nashua NH;New England;Philadelphia PA;Québec;Religion;St. John River Valley;Van Buren ME;Waterville ME;Woonsocket RI;Youth</t>
         </is>
       </c>
       <c r="AM52" t="inlineStr">
-        <is>
-          <t>Acadians;Augusta ME;Biddeford ME;Boston MA;Community: Customs and Social Life;Education;Fall River MA;Family;Film and Television;Folklore;Language and Linguistics;Lewiston ME;Lowell MA;Madawaska ME;Maine;Manchester NH;Nashua NH;New England;Philadelphia PA;Québec;Religion;St. John River Valley;Van Buren ME;Waterville ME;Woonsocket RI;Youth</t>
-        </is>
-      </c>
-      <c r="AN52" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>1858</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Chantons!</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chantons!</t>
+          <t>Livret de titres de chansons françaises et anglaises et de leurs paroles.  Booklet of French and English song titles and their lyrics.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Livret de titres de chansons françaises et anglaises et de leurs paroles.  Booklet of French and English song titles and their lyrics.</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>L'Union Saint-Jean-Baptiste d'Amérique de Woonsocket, Rhode Island</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>L'Union Saint-Jean-Baptiste d'Amérique</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>L'Union Saint-Jean-Baptiste d'Amérique</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
           <t>19[??]</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
         <is>
           <t>English et français</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Document</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Document</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/33982319"&gt;33982319&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/33982319"&gt;33982319&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
           <t>20e siiècle; Woonsocket, Rhode Island; Nouvelle-Angleterre</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
@@ -5887,82 +5732,79 @@
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>Chantons! sur Google Books</t>
-        </is>
-      </c>
+      <c r="AF53" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://books.google.com/books/about/Chantons.html?id=fvqNYgEACAAJ"&gt;Chantons! sur Google Books&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="inlineStr"/>
       <c r="AI53" t="inlineStr"/>
       <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/a555adbe762507a2947b248e10ad00a4.jpg</t>
+        </is>
+      </c>
       <c r="AL53" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/a555adbe762507a2947b248e10ad00a4.jpg</t>
+          <t>Clubs and Societies;Music;Woonsocket RI</t>
         </is>
       </c>
       <c r="AM53" t="inlineStr">
-        <is>
-          <t>Clubs and Societies;Music;Woonsocket RI</t>
-        </is>
-      </c>
-      <c r="AN53" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>1897</v>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Where is the French in Lewiston?</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Where is the French in Lewiston?</t>
+          <t>Radio piece on the transformations of French language and Franco American culture in Lewiston, Maine, in the 21st century. Features Marie Marthe Rivard, a 1922 immigrant from Québec to Lewiston, at her home, at work, and at Catholic mass. Some thoughts on her own languages and the speaking of French within her family. Impressions of local culture from a Lewiston priest and a local French language teacher. Produced, with photographs, for the Salt Gallery of the Salt Institute for Documentary Studies in Portland, Maine.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Radio piece on the transformations of French language and Franco American culture in Lewiston, Maine, in the 21st century. Features Marie Marthe Rivard, a 1922 immigrant from Québec to Lewiston, at her home, at work, and at Catholic mass. Some thoughts on her own languages and the speaking of French within her family. Impressions of local culture from a Lewiston priest and a local French language teacher. Produced, with photographs, for the Salt Gallery of the Salt Institute for Documentary Studies in Portland, Maine.</t>
+          <t xml:space="preserve">Elzas, Sarah (producer) </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elzas, Sarah (producer) </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
           <t>Listen: AUDIO;Read: TRANSCRIPT</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
         <is>
           <t>2004 August 30</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
         <is>
           <t>English, with some français</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>Radio Broadcast</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
         <is>
           <t>2004; Lewiston, Maine</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr"/>
@@ -5971,104 +5813,101 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>00:07:14</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr">
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr">
         <is>
           <t>Lewiston, Maine</t>
         </is>
       </c>
+      <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
       <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>http://www.toucanradio.org/lewistontranscript.html</t>
-        </is>
-      </c>
+      <c r="AF54" t="inlineStr">
+        <is>
+          <t>&lt;div class="element-text"&gt;&lt;a href="http://www.toucanradio.org/lewistontranscript.html"&gt;http://www.toucanradio.org/lewistontranscript.html&lt;/a&gt;&lt;/div&gt;</t>
+        </is>
+      </c>
+      <c r="AG54" t="inlineStr"/>
       <c r="AH54" t="inlineStr"/>
       <c r="AI54" t="inlineStr"/>
       <c r="AJ54" t="inlineStr"/>
       <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr">
+        <is>
+          <t>Acculturation and Assimilation;Androscoggin River Valley;Auburn ME;Education;Family;Language and Linguistics;Lewiston ME;Mills and Mill Work;Radio;Religion;Youth</t>
+        </is>
+      </c>
       <c r="AM54" t="inlineStr">
-        <is>
-          <t>Acculturation and Assimilation;Androscoggin River Valley;Auburn ME;Education;Family;Language and Linguistics;Lewiston ME;Mills and Mill Work;Radio;Religion;Youth</t>
-        </is>
-      </c>
-      <c r="AN54" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>1919</v>
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Chansons de Chez-Nous</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chansons de Chez-Nous</t>
+          <t>Music and lyrics for 31 French-language songs of French, French-Canadian, and Acadian origins. Designed for the language-learning classroom. Text is divided into three sections for appropriate audiences: children 5-7 years old; 8-9 years old; 10 and older. Accompanied by two cassette tapes with recordings of each song. La musique et les paroles de 31 chansons d'origine française, canadienne-française, et acadienne. Conçu pour la classe d'apprentissage de la langue française. Le texte est divisé en trois sections: pour les enfants 5-7 ans; 8-9 ans; 10 ans et plus. Accompagné de deux cassettes contenant des enregistrements de chaque chanson. Les chansons suivantes: DE CINQ A SEPT ANS: C'est la poulette grise Mon beau sapin Ah! Vous dirai-je, Maman La cabane à  sucre Berceuse slave Les cloches du hameau Evangéline DE HUIT A NEUF ANS: Bonhomme, Bonhomme! Meunier tu dors Au fond des campagnes Le carillonneur V'la l'bon vent Mon merle Sur la route de Berthier Trois jeunes tambours Le Corbeau et le Renard La Cigale et la Fourmi DE DIX A ONZE ANS: Vive le vent Un Canadien errant Michaud est tombe Berceuse Vive la Canadienne Sainte nuit Quand j'étais chez mon pere A la volette Fringue, fringue, sur la riviere Partons, la mer est belle Le moulin A Saint-Malo, beau port de mer Derriere chez-nous Mon pere, j'voudrais m'marier</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Music and lyrics for 31 French-language songs of French, French-Canadian, and Acadian origins. Designed for the language-learning classroom. Text is divided into three sections for appropriate audiences: children 5-7 years old; 8-9 years old; 10 and older. Accompanied by two cassette tapes with recordings of each song. La musique et les paroles de 31 chansons d'origine française, canadienne-française, et acadienne. Conçu pour la classe d'apprentissage de la langue française. Le texte est divisé en trois sections: pour les enfants 5-7 ans; 8-9 ans; 10 ans et plus. Accompagné de deux cassettes contenant des enregistrements de chaque chanson. Les chansons suivantes: DE CINQ A SEPT ANS: C'est la poulette grise Mon beau sapin Ah! Vous dirai-je, Maman La cabane à  sucre Berceuse slave Les cloches du hameau Evangéline DE HUIT A NEUF ANS: Bonhomme, Bonhomme! Meunier tu dors Au fond des campagnes Le carillonneur V'la l'bon vent Mon merle Sur la route de Berthier Trois jeunes tambours Le Corbeau et le Renard La Cigale et la Fourmi DE DIX A ONZE ANS: Vive le vent Un Canadien errant Michaud est tombe Berceuse Vive la Canadienne Sainte nuit Quand j'étais chez mon pere A la volette Fringue, fringue, sur la riviere Partons, la mer est belle Le moulin A Saint-Malo, beau port de mer Derriere chez-nous Mon pere, j'voudrais m'marier</t>
+          <t>Albert, Renaud S. (editor)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Albert, Renaud S. (editor)</t>
+          <t>Read: FULL TEXT;Download: PDF</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Read: FULL TEXT;Download: PDF</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="F55" t="n">
         <v>1978</v>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Albert, Julie D. (illustrations);Blais, Lise M. (sheet music);Douillard, Sr. Jeanne (vocals);Snow, Sr. Suzanne (vocals)</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Albert, Julie D. (illustrations);Blais, Lise M. (sheet music);Douillard, Sr. Jeanne (vocals);Snow, Sr. Suzanne (vocals)</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
           <t>Français</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Book</t>
+        </is>
+      </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Book</t>
+          <t>&lt;a href="http://www.worldcat.org/oclc/9985485"&gt;9985485&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/27235256"&gt;27235256&lt;/a&gt;</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>&lt;a href="http://www.worldcat.org/oclc/9985485"&gt;9985485&lt;/a&gt;;&lt;a href="http://www.worldcat.org/oclc/27235256"&gt;27235256&lt;/a&gt;</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
           <t>Nouvelle-Angleterre; Canada, France</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr"/>
@@ -6078,20 +5917,20 @@
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="n">
+      <c r="Y55" t="n">
         <v>61</v>
       </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>Bedford, New Hampshire</t>
+        </is>
+      </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Bedford, New Hampshire</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
           <t>National Materials Development Center</t>
         </is>
       </c>
+      <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
@@ -6100,18 +5939,17 @@
       <c r="AH55" t="inlineStr"/>
       <c r="AI55" t="inlineStr"/>
       <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr">
+        <is>
+          <t>https://francolibrary.com/archive/files/efda7a3e8a321435b7a03cf45d865c86.jpg;https://francolibrary.com/archive/files/94d95262bf5f0e4ef5521e165579bacc.pdf</t>
+        </is>
+      </c>
       <c r="AL55" t="inlineStr">
         <is>
-          <t>https://francolibrary.com/archive/files/efda7a3e8a321435b7a03cf45d865c86.jpg;https://francolibrary.com/archive/files/94d95262bf5f0e4ef5521e165579bacc.pdf</t>
+          <t>Acadians;Community: Customs and Social Life;Education;France;Music;New England;NMDC;Québec</t>
         </is>
       </c>
       <c r="AM55" t="inlineStr">
-        <is>
-          <t>Acadians;Community: Customs and Social Life;Education;France;Music;New England;NMDC;Québec</t>
-        </is>
-      </c>
-      <c r="AN55" t="inlineStr">
         <is>
           <t>Audio &amp; Video</t>
         </is>
